--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -164,7 +164,7 @@
     <t>FF</t>
   </si>
   <si>
-    <t>2016/07/20</t>
+    <t>2016/07/21</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -924,7 +924,7 @@
         <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -1123,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -1318,7 +1318,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -1838,7 +1838,7 @@
         <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -1903,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -2037,7 +2037,7 @@
         <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -2102,7 +2102,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -2299,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -2364,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -2429,7 +2429,7 @@
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -2695,7 +2695,7 @@
         <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -2959,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -3089,7 +3089,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -3219,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -3609,7 +3609,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -3674,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>1.5</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -3873,7 +3873,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -4200,7 +4200,7 @@
         <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>

--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -1965,7 +1965,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>411</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>413</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>414</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>415</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>416</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>417</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>418</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2472,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>419</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2537,7 +2537,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>420</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>421</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>422</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2734,7 +2734,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>423</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2801,7 +2801,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>424</v>
+        <v>165</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>425</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -2937,7 +2937,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>426</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>427</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3073,7 +3073,7 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3138,7 +3138,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>429</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>430</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3270,7 +3270,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3337,7 +3337,7 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>432</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3402,7 +3402,7 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3469,7 +3469,7 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>436</v>
+        <v>177</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>437</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>438</v>
+        <v>179</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3798,7 +3798,7 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>439</v>
+        <v>180</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>440</v>
+        <v>181</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>441</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>442</v>
+        <v>183</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>443</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>444</v>
+        <v>185</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>445</v>
+        <v>186</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4259,7 +4259,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>446</v>
+        <v>187</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4326,7 +4326,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>447</v>
+        <v>188</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4391,7 +4391,7 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>448</v>
+        <v>189</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4456,7 +4456,7 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4521,7 +4521,7 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>450</v>
+        <v>191</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>451</v>
+        <v>192</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>452</v>
+        <v>193</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>453</v>
+        <v>194</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4787,7 +4787,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4854,7 +4854,7 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4919,7 +4919,7 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>456</v>
+        <v>197</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5051,7 +5051,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>458</v>
+        <v>199</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5116,7 +5116,7 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>459</v>
+        <v>200</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>460</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5248,7 +5248,7 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>461</v>
+        <v>202</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>462</v>
+        <v>203</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5378,7 +5378,7 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>463</v>
+        <v>204</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5445,7 +5445,7 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>464</v>
+        <v>205</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5512,7 +5512,7 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>465</v>
+        <v>206</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5577,7 +5577,7 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
         <v>-1</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>466</v>
+        <v>207</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>-1</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
         <v>-1</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>468</v>
+        <v>209</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
         <v>-1</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>469</v>
+        <v>210</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
         <v>-1</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>470</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>-1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>472</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>474</v>
+        <v>215</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
         <v>-1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>475</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>-1</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>476</v>
+        <v>217</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6301,7 +6301,7 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>477</v>
+        <v>218</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
         <v>-1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>478</v>
+        <v>219</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6435,7 +6435,7 @@
         <v>1.5</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>479</v>
+        <v>220</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T70" t="n">
         <v>-1</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>480</v>
+        <v>221</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6569,7 +6569,7 @@
         <v>1.5</v>
       </c>
       <c r="S71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>481</v>
+        <v>222</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T72" t="n">
         <v>-1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>482</v>
+        <v>223</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6701,7 +6701,7 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>483</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6768,7 +6768,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>484</v>
+        <v>225</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6835,7 +6835,7 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>485</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -6900,7 +6900,7 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -6967,7 +6967,7 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7032,7 +7032,7 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>488</v>
+        <v>229</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7099,7 +7099,7 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>489</v>
+        <v>230</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>490</v>
+        <v>231</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>491</v>
+        <v>232</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7294,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="S82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>492</v>
+        <v>233</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>493</v>
+        <v>234</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>494</v>
+        <v>235</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>495</v>
+        <v>236</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7554,7 +7554,7 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>496</v>
+        <v>237</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7619,7 +7619,7 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>497</v>
+        <v>238</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7686,7 +7686,7 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>498</v>
+        <v>239</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7753,7 +7753,7 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>499</v>
+        <v>240</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>500</v>
+        <v>241</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>502</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
         <v>-1</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>503</v>
+        <v>244</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>504</v>
+        <v>245</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>505</v>
+        <v>246</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>506</v>
+        <v>247</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>507</v>
+        <v>248</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>508</v>
+        <v>249</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>509</v>
+        <v>250</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>510</v>
+        <v>251</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>511</v>
+        <v>252</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>512</v>
+        <v>253</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>513</v>
+        <v>254</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
         <v>-1</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>514</v>
+        <v>255</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T106" t="n">
         <v>-1</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>516</v>
+        <v>257</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -8929,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="S107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>518</v>
+        <v>259</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>519</v>
+        <v>260</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
         <v>-1</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>520</v>
+        <v>261</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>521</v>
+        <v>262</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
         <v>-1</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>522</v>
+        <v>263</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>523</v>
+        <v>264</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>524</v>
+        <v>265</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>525</v>
+        <v>266</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
         <v>-1</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>526</v>
+        <v>267</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>527</v>
+        <v>268</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T118" t="n">
         <v>-1</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>528</v>
+        <v>269</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>529</v>
+        <v>270</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>530</v>
+        <v>271</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>531</v>
+        <v>272</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T122" t="n">
         <v>-1</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>532</v>
+        <v>273</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T123" t="n">
         <v>-1</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>533</v>
+        <v>274</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T124" t="n">
         <v>-1</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>534</v>
+        <v>275</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T125" t="n">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>535</v>
+        <v>276</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T126" t="n">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>536</v>
+        <v>277</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
         <v>-1</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>537</v>
+        <v>278</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T128" t="n">
         <v>-1</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>538</v>
+        <v>279</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
         <v>-1</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
         <v>-1</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>540</v>
+        <v>281</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T131" t="n">
         <v>-1</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>541</v>
+        <v>282</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T132" t="n">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>542</v>
+        <v>283</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T133" t="n">
         <v>-1</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>543</v>
+        <v>284</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T134" t="n">
         <v>-1</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>544</v>
+        <v>285</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T135" t="n">
         <v>-1</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>545</v>
+        <v>286</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T136" t="n">
         <v>-1</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>546</v>
+        <v>287</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T137" t="n">
         <v>-1</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>547</v>
+        <v>288</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="S138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T138" t="n">
         <v>-1</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>548</v>
+        <v>289</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11027,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T139" t="n">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>549</v>
+        <v>290</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
         <v>-1</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>550</v>
+        <v>291</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
         <v>-1</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>551</v>
+        <v>292</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T142" t="n">
         <v>-1</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>552</v>
+        <v>293</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T143" t="n">
         <v>-1</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>553</v>
+        <v>294</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
         <v>-1</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>554</v>
+        <v>295</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T145" t="n">
         <v>-1</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>555</v>
+        <v>296</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11486,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T146" t="n">
         <v>-1</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>556</v>
+        <v>297</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T147" t="n">
         <v>-1</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>557</v>
+        <v>298</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T148" t="n">
         <v>-1</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>558</v>
+        <v>299</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T149" t="n">
         <v>-1</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>559</v>
+        <v>300</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
         <v>-1</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>560</v>
+        <v>301</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T151" t="n">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>561</v>
+        <v>302</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -11878,7 +11878,7 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T152" t="n">
         <v>-1</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>562</v>
+        <v>303</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="S153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T153" t="n">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>563</v>
+        <v>304</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T154" t="n">
         <v>-1</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>564</v>
+        <v>305</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T155" t="n">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>565</v>
+        <v>306</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T156" t="n">
         <v>-1</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>566</v>
+        <v>307</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12205,7 +12205,7 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T157" t="n">
         <v>-1</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>567</v>
+        <v>308</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12272,7 +12272,7 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T158" t="n">
         <v>-1</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>568</v>
+        <v>309</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12339,7 +12339,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T159" t="n">
         <v>-1</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>569</v>
+        <v>310</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T160" t="n">
         <v>-1</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>570</v>
+        <v>311</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T161" t="n">
         <v>-1</v>
@@ -12494,7 +12494,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>571</v>
+        <v>312</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T162" t="n">
         <v>-1</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>572</v>
+        <v>313</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12601,7 +12601,7 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T163" t="n">
         <v>-1</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>573</v>
+        <v>314</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12666,7 +12666,7 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T164" t="n">
         <v>-1</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>574</v>
+        <v>315</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12731,7 +12731,7 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T165" t="n">
         <v>-1</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>575</v>
+        <v>316</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12798,7 +12798,7 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T166" t="n">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>576</v>
+        <v>317</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -12865,7 +12865,7 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T167" t="n">
         <v>-1</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>577</v>
+        <v>318</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T168" t="n">
         <v>-1</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>578</v>
+        <v>319</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T169" t="n">
         <v>-1</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>579</v>
+        <v>320</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T170" t="n">
         <v>-1</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>580</v>
+        <v>321</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T171" t="n">
         <v>-1</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>581</v>
+        <v>322</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T172" t="n">
         <v>-1</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>582</v>
+        <v>323</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T173" t="n">
         <v>-1</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>583</v>
+        <v>324</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T174" t="n">
         <v>-1</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>584</v>
+        <v>325</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
         <v>-1</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>585</v>
+        <v>326</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T176" t="n">
         <v>-1</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>586</v>
+        <v>327</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T177" t="n">
         <v>-1</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>587</v>
+        <v>328</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T178" t="n">
         <v>-1</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>588</v>
+        <v>329</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T179" t="n">
         <v>-1</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>589</v>
+        <v>330</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T180" t="n">
         <v>-1</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>590</v>
+        <v>331</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T181" t="n">
         <v>-1</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>591</v>
+        <v>332</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T182" t="n">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>592</v>
+        <v>333</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T183" t="n">
         <v>-1</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>593</v>
+        <v>334</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T184" t="n">
         <v>-1</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>594</v>
+        <v>335</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T185" t="n">
         <v>-1</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>595</v>
+        <v>336</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T186" t="n">
         <v>-1</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>596</v>
+        <v>337</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T187" t="n">
         <v>-1</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>597</v>
+        <v>338</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T188" t="n">
         <v>-1</v>
@@ -14265,7 +14265,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>598</v>
+        <v>339</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T189" t="n">
         <v>-1</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>599</v>
+        <v>340</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T190" t="n">
         <v>-1</v>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>600</v>
+        <v>341</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T191" t="n">
         <v>-1</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>601</v>
+        <v>342</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T192" t="n">
         <v>-1</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>602</v>
+        <v>343</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T193" t="n">
         <v>-1</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>603</v>
+        <v>344</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T194" t="n">
         <v>-1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>604</v>
+        <v>345</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T195" t="n">
         <v>-1</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>605</v>
+        <v>346</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T196" t="n">
         <v>-1</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>606</v>
+        <v>347</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T197" t="n">
         <v>-1</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>607</v>
+        <v>348</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T198" t="n">
         <v>-1</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>608</v>
+        <v>349</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T199" t="n">
         <v>-1</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>609</v>
+        <v>350</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T200" t="n">
         <v>-1</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>610</v>
+        <v>351</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T201" t="n">
         <v>-1</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>611</v>
+        <v>352</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T202" t="n">
         <v>-1</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>612</v>
+        <v>353</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T203" t="n">
         <v>-1</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>613</v>
+        <v>354</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T204" t="n">
         <v>-1</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>614</v>
+        <v>355</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T205" t="n">
         <v>-1</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>615</v>
+        <v>356</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T206" t="n">
         <v>-1</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>616</v>
+        <v>357</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T207" t="n">
         <v>-1</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>617</v>
+        <v>358</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T208" t="n">
         <v>-1</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>618</v>
+        <v>359</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15619,7 +15619,7 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T209" t="n">
         <v>-1</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>619</v>
+        <v>360</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15686,7 +15686,7 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T210" t="n">
         <v>-1</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>620</v>
+        <v>361</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15753,7 +15753,7 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T211" t="n">
         <v>-1</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>621</v>
+        <v>362</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T212" t="n">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>622</v>
+        <v>363</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T213" t="n">
         <v>-1</v>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>623</v>
+        <v>364</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T214" t="n">
         <v>-1</v>
@@ -15971,7 +15971,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>624</v>
+        <v>365</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T215" t="n">
         <v>-1</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>625</v>
+        <v>366</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T216" t="n">
         <v>-1</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>626</v>
+        <v>367</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T217" t="n">
         <v>-1</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>627</v>
+        <v>368</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T218" t="n">
         <v>-1</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>628</v>
+        <v>369</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T219" t="n">
         <v>-1</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>629</v>
+        <v>370</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T220" t="n">
         <v>-1</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>630</v>
+        <v>371</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
         <v>-1</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>631</v>
+        <v>372</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16476,7 +16476,7 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T222" t="n">
         <v>-1</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>632</v>
+        <v>373</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T223" t="n">
         <v>-1</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>633</v>
+        <v>374</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T224" t="n">
         <v>-1</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>634</v>
+        <v>375</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T225" t="n">
         <v>-1</v>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>635</v>
+        <v>376</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16748,7 +16748,7 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T226" t="n">
         <v>-1</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>636</v>
+        <v>377</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T227" t="n">
         <v>-1</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>637</v>
+        <v>378</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -16879,7 +16879,7 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T228" t="n">
         <v>-1</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>638</v>
+        <v>379</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T229" t="n">
         <v>-1</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T230" t="n">
         <v>-1</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>640</v>
+        <v>381</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T231" t="n">
         <v>-1</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>641</v>
+        <v>382</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T232" t="n">
         <v>-1</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>642</v>
+        <v>383</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T233" t="n">
         <v>-1</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>643</v>
+        <v>384</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T234" t="n">
         <v>-1</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>644</v>
+        <v>385</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T235" t="n">
         <v>-1</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>645</v>
+        <v>386</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17400,7 +17400,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T236" t="n">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>646</v>
+        <v>387</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T237" t="n">
         <v>-1</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>647</v>
+        <v>388</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T238" t="n">
         <v>-1</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>648</v>
+        <v>389</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T239" t="n">
         <v>-1</v>
@@ -17618,7 +17618,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>649</v>
+        <v>390</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T240" t="n">
         <v>-1</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>650</v>
+        <v>391</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T241" t="n">
         <v>-1</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>651</v>
+        <v>392</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
         <v>-1</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>652</v>
+        <v>393</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T243" t="n">
         <v>-1</v>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>653</v>
+        <v>394</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T244" t="n">
         <v>-1</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>654</v>
+        <v>395</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T245" t="n">
         <v>-1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>655</v>
+        <v>396</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T246" t="n">
         <v>-1</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>656</v>
+        <v>397</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T247" t="n">
         <v>-1</v>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>657</v>
+        <v>398</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18180,7 +18180,7 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T248" t="n">
         <v>-1</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>658</v>
+        <v>399</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T249" t="n">
         <v>-1</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>659</v>
+        <v>400</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18312,7 +18312,7 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T250" t="n">
         <v>-1</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>660</v>
+        <v>401</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T251" t="n">
         <v>-1</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>661</v>
+        <v>402</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18446,7 +18446,7 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T252" t="n">
         <v>-1</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>662</v>
+        <v>403</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T253" t="n">
         <v>-1</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>663</v>
+        <v>404</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T254" t="n">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>664</v>
+        <v>405</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T255" t="n">
         <v>-1</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>665</v>
+        <v>406</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T256" t="n">
         <v>-1</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>666</v>
+        <v>407</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18777,7 +18777,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T257" t="n">
         <v>-1</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>667</v>
+        <v>408</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -18844,7 +18844,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
         <v>-1</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>668</v>
+        <v>409</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -18911,7 +18911,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T259" t="n">
         <v>-1</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>669</v>
+        <v>410</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -18978,7 +18978,7 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T260" t="n">
         <v>-1</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>670</v>
+        <v>411</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19045,7 +19045,7 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T261" t="n">
         <v>-1</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>671</v>
+        <v>412</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19112,7 +19112,7 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T262" t="n">
         <v>-1</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>672</v>
+        <v>413</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19179,7 +19179,7 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T263" t="n">
         <v>-1</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>673</v>
+        <v>414</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T264" t="n">
         <v>-1</v>
@@ -19267,7 +19267,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>674</v>
+        <v>415</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T265" t="n">
         <v>-1</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>675</v>
+        <v>416</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T266" t="n">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>676</v>
+        <v>417</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T267" t="n">
         <v>-1</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>677</v>
+        <v>418</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>678</v>
+        <v>419</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T269" t="n">
         <v>-1</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>679</v>
+        <v>420</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T270" t="n">
         <v>-1</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>680</v>
+        <v>421</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19711,7 +19711,7 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T271" t="n">
         <v>-1</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>681</v>
+        <v>422</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19778,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T272" t="n">
         <v>-1</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>682</v>
+        <v>423</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -19845,7 +19845,7 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T273" t="n">
         <v>-1</v>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>683</v>
+        <v>424</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T274" t="n">
         <v>-1</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>684</v>
+        <v>425</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T275" t="n">
         <v>-1</v>
@@ -20000,7 +20000,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>685</v>
+        <v>426</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T276" t="n">
         <v>-1</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>686</v>
+        <v>427</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20109,7 +20109,7 @@
         <v>3</v>
       </c>
       <c r="S277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T277" t="n">
         <v>-1</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>687</v>
+        <v>428</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20174,7 +20174,7 @@
         <v>3</v>
       </c>
       <c r="S278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T278" t="n">
         <v>-1</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>688</v>
+        <v>429</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T279" t="n">
         <v>-1</v>
@@ -20262,7 +20262,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>689</v>
+        <v>430</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T280" t="n">
         <v>-1</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>690</v>
+        <v>431</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T281" t="n">
         <v>-1</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>691</v>
+        <v>432</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20434,7 +20434,7 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T282" t="n">
         <v>-1</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>692</v>
+        <v>433</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20501,7 +20501,7 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T283" t="n">
         <v>-1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>693</v>
+        <v>434</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20568,7 +20568,7 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T284" t="n">
         <v>-1</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>694</v>
+        <v>435</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20635,7 +20635,7 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T285" t="n">
         <v>-1</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>695</v>
+        <v>436</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20702,7 +20702,7 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T286" t="n">
         <v>-1</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>696</v>
+        <v>437</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20769,7 +20769,7 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T287" t="n">
         <v>-1</v>
@@ -20792,7 +20792,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>697</v>
+        <v>438</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T288" t="n">
         <v>-1</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>698</v>
+        <v>439</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T289" t="n">
         <v>-1</v>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>699</v>
+        <v>440</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T290" t="n">
         <v>-1</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>700</v>
+        <v>441</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T291" t="n">
         <v>-1</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>701</v>
+        <v>442</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T292" t="n">
         <v>-1</v>
@@ -21121,7 +21121,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>702</v>
+        <v>443</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T293" t="n">
         <v>-1</v>
@@ -21188,7 +21188,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>703</v>
+        <v>444</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T294" t="n">
         <v>-1</v>
@@ -21253,7 +21253,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>704</v>
+        <v>445</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T295" t="n">
         <v>-1</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>705</v>
+        <v>446</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T296" t="n">
         <v>-1</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>706</v>
+        <v>447</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T297" t="n">
         <v>-1</v>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>707</v>
+        <v>448</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T298" t="n">
         <v>-1</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>708</v>
+        <v>449</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T299" t="n">
         <v>-1</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>709</v>
+        <v>450</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T300" t="n">
         <v>-1</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>710</v>
+        <v>451</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T301" t="n">
         <v>-1</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>711</v>
+        <v>452</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21752,7 +21752,7 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T302" t="n">
         <v>-1</v>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>712</v>
+        <v>453</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -21819,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="S303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T303" t="n">
         <v>-1</v>
@@ -21842,7 +21842,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>713</v>
+        <v>454</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -21886,7 +21886,7 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T304" t="n">
         <v>-1</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>714</v>
+        <v>455</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -21953,7 +21953,7 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T305" t="n">
         <v>-1</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>715</v>
+        <v>456</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22020,7 +22020,7 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T306" t="n">
         <v>-1</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>716</v>
+        <v>457</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22087,7 +22087,7 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T307" t="n">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>717</v>
+        <v>458</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22152,7 +22152,7 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T308" t="n">
         <v>-1</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>718</v>
+        <v>459</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22219,7 +22219,7 @@
         <v>1.5</v>
       </c>
       <c r="S309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T309" t="n">
         <v>-1</v>
@@ -22242,7 +22242,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>719</v>
+        <v>460</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22286,7 +22286,7 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T310" t="n">
         <v>-1</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>720</v>
+        <v>461</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22353,7 +22353,7 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T311" t="n">
         <v>-1</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>721</v>
+        <v>462</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22420,7 +22420,7 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T312" t="n">
         <v>-1</v>
@@ -22443,7 +22443,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>722</v>
+        <v>463</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22487,7 +22487,7 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T313" t="n">
         <v>-1</v>
@@ -22510,7 +22510,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>723</v>
+        <v>464</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22552,7 +22552,7 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T314" t="n">
         <v>-1</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>724</v>
+        <v>465</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22617,7 +22617,7 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T315" t="n">
         <v>-1</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>725</v>
+        <v>466</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22684,7 +22684,7 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T316" t="n">
         <v>-1</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>726</v>
+        <v>467</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22749,7 +22749,7 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T317" t="n">
         <v>-1</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>727</v>
+        <v>468</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T318" t="n">
         <v>-1</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>728</v>
+        <v>469</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -22879,7 +22879,7 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T319" t="n">
         <v>-1</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>729</v>
+        <v>470</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -22944,7 +22944,7 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T320" t="n">
         <v>-1</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>730</v>
+        <v>471</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23011,7 +23011,7 @@
         <v>1.5</v>
       </c>
       <c r="S321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T321" t="n">
         <v>-1</v>
@@ -23034,7 +23034,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>731</v>
+        <v>472</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23078,7 +23078,7 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T322" t="n">
         <v>-1</v>
@@ -23101,7 +23101,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>732</v>
+        <v>473</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23145,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T323" t="n">
         <v>-1</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>733</v>
+        <v>474</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23212,7 +23212,7 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T324" t="n">
         <v>-1</v>
@@ -23235,7 +23235,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>734</v>
+        <v>475</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23279,7 +23279,7 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T325" t="n">
         <v>-1</v>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>735</v>
+        <v>476</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23344,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T326" t="n">
         <v>-1</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>736</v>
+        <v>477</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23411,7 +23411,7 @@
         <v>1.5</v>
       </c>
       <c r="S327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T327" t="n">
         <v>-1</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>737</v>
+        <v>478</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23478,7 +23478,7 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T328" t="n">
         <v>-1</v>
@@ -23501,7 +23501,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>738</v>
+        <v>479</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23545,7 +23545,7 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T329" t="n">
         <v>-1</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>739</v>
+        <v>480</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>
@@ -23612,7 +23612,7 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T330" t="n">
         <v>-1</v>

--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -163,7 +163,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>2016/07/25</t>
+    <t>2016/07/26</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>152</v>
+        <v>810</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>153</v>
+        <v>811</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>154</v>
+        <v>812</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>155</v>
+        <v>813</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>156</v>
+        <v>814</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>157</v>
+        <v>815</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>158</v>
+        <v>816</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>159</v>
+        <v>817</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>160</v>
+        <v>818</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>161</v>
+        <v>819</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>162</v>
+        <v>820</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>163</v>
+        <v>821</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>164</v>
+        <v>822</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>165</v>
+        <v>823</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>166</v>
+        <v>824</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>167</v>
+        <v>825</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>168</v>
+        <v>826</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>169</v>
+        <v>827</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>170</v>
+        <v>828</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>171</v>
+        <v>829</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>172</v>
+        <v>830</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>173</v>
+        <v>831</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>174</v>
+        <v>832</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>175</v>
+        <v>833</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>176</v>
+        <v>834</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>177</v>
+        <v>835</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>178</v>
+        <v>836</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>179</v>
+        <v>837</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>180</v>
+        <v>838</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>181</v>
+        <v>839</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>182</v>
+        <v>840</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>183</v>
+        <v>841</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>184</v>
+        <v>842</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>185</v>
+        <v>843</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>186</v>
+        <v>844</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>187</v>
+        <v>845</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>188</v>
+        <v>846</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>189</v>
+        <v>847</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>190</v>
+        <v>848</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>191</v>
+        <v>849</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>192</v>
+        <v>850</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>193</v>
+        <v>851</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>194</v>
+        <v>852</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>195</v>
+        <v>853</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>196</v>
+        <v>854</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>197</v>
+        <v>855</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>198</v>
+        <v>856</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>199</v>
+        <v>857</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>200</v>
+        <v>858</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>201</v>
+        <v>859</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>202</v>
+        <v>860</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>203</v>
+        <v>861</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>204</v>
+        <v>862</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>205</v>
+        <v>863</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>206</v>
+        <v>864</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>207</v>
+        <v>865</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>208</v>
+        <v>866</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>209</v>
+        <v>867</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>210</v>
+        <v>868</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>211</v>
+        <v>869</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>212</v>
+        <v>870</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>213</v>
+        <v>871</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>214</v>
+        <v>872</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>215</v>
+        <v>873</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>216</v>
+        <v>874</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>217</v>
+        <v>875</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>218</v>
+        <v>876</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>219</v>
+        <v>877</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>220</v>
+        <v>878</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>221</v>
+        <v>879</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>222</v>
+        <v>880</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>223</v>
+        <v>881</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>224</v>
+        <v>882</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>225</v>
+        <v>883</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>226</v>
+        <v>884</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>227</v>
+        <v>885</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>228</v>
+        <v>886</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>229</v>
+        <v>887</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>230</v>
+        <v>888</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>231</v>
+        <v>889</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>232</v>
+        <v>890</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>233</v>
+        <v>891</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>234</v>
+        <v>892</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>235</v>
+        <v>893</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>236</v>
+        <v>894</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>237</v>
+        <v>895</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>238</v>
+        <v>896</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>239</v>
+        <v>897</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>240</v>
+        <v>898</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>241</v>
+        <v>899</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>242</v>
+        <v>900</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>243</v>
+        <v>901</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>244</v>
+        <v>902</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>245</v>
+        <v>903</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>246</v>
+        <v>904</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>247</v>
+        <v>905</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>248</v>
+        <v>906</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>249</v>
+        <v>907</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>250</v>
+        <v>908</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>251</v>
+        <v>909</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>252</v>
+        <v>910</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>253</v>
+        <v>911</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>254</v>
+        <v>912</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>255</v>
+        <v>913</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>256</v>
+        <v>914</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>257</v>
+        <v>915</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>258</v>
+        <v>916</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>259</v>
+        <v>917</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>260</v>
+        <v>918</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>261</v>
+        <v>919</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>262</v>
+        <v>920</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>263</v>
+        <v>921</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>264</v>
+        <v>922</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>265</v>
+        <v>923</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>266</v>
+        <v>924</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>267</v>
+        <v>925</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>268</v>
+        <v>926</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>269</v>
+        <v>927</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>270</v>
+        <v>928</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>271</v>
+        <v>929</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>272</v>
+        <v>930</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>273</v>
+        <v>931</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>274</v>
+        <v>932</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>275</v>
+        <v>933</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>276</v>
+        <v>934</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>277</v>
+        <v>935</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>278</v>
+        <v>936</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>279</v>
+        <v>937</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>280</v>
+        <v>938</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>281</v>
+        <v>939</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>282</v>
+        <v>940</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>283</v>
+        <v>941</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>284</v>
+        <v>942</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>285</v>
+        <v>943</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>286</v>
+        <v>944</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>287</v>
+        <v>945</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>288</v>
+        <v>946</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>289</v>
+        <v>947</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>290</v>
+        <v>948</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>291</v>
+        <v>949</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>292</v>
+        <v>950</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>293</v>
+        <v>951</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>294</v>
+        <v>952</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>295</v>
+        <v>953</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>296</v>
+        <v>954</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>297</v>
+        <v>955</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>298</v>
+        <v>956</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>299</v>
+        <v>957</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>300</v>
+        <v>958</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>301</v>
+        <v>959</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>302</v>
+        <v>960</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>303</v>
+        <v>961</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>304</v>
+        <v>962</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>305</v>
+        <v>963</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>306</v>
+        <v>964</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>307</v>
+        <v>965</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>308</v>
+        <v>966</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>309</v>
+        <v>967</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>310</v>
+        <v>968</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>311</v>
+        <v>969</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12494,7 +12494,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>312</v>
+        <v>970</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>313</v>
+        <v>971</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>314</v>
+        <v>972</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>315</v>
+        <v>973</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>316</v>
+        <v>974</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>317</v>
+        <v>975</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>318</v>
+        <v>976</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>319</v>
+        <v>977</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>320</v>
+        <v>978</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>321</v>
+        <v>979</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>322</v>
+        <v>980</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>323</v>
+        <v>981</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>324</v>
+        <v>982</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>325</v>
+        <v>983</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>326</v>
+        <v>984</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>327</v>
+        <v>985</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>328</v>
+        <v>986</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>329</v>
+        <v>987</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>330</v>
+        <v>988</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>331</v>
+        <v>989</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>332</v>
+        <v>990</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>333</v>
+        <v>991</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>334</v>
+        <v>992</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>335</v>
+        <v>993</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>336</v>
+        <v>994</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>337</v>
+        <v>995</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>338</v>
+        <v>996</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14265,7 +14265,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>339</v>
+        <v>997</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>340</v>
+        <v>998</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>341</v>
+        <v>999</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>342</v>
+        <v>1000</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>343</v>
+        <v>1001</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>344</v>
+        <v>1002</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>345</v>
+        <v>1003</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>346</v>
+        <v>1004</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>347</v>
+        <v>1005</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>348</v>
+        <v>1006</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>349</v>
+        <v>1007</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>350</v>
+        <v>1008</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>351</v>
+        <v>1009</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>352</v>
+        <v>1010</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>353</v>
+        <v>1011</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>354</v>
+        <v>1012</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>355</v>
+        <v>1013</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>356</v>
+        <v>1014</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>357</v>
+        <v>1015</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>358</v>
+        <v>1016</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>359</v>
+        <v>1017</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>360</v>
+        <v>1018</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>361</v>
+        <v>1019</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>362</v>
+        <v>1020</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>363</v>
+        <v>1021</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>364</v>
+        <v>1022</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -15971,7 +15971,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>365</v>
+        <v>1023</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>366</v>
+        <v>1024</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>367</v>
+        <v>1025</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>368</v>
+        <v>1026</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>369</v>
+        <v>1027</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>370</v>
+        <v>1028</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>371</v>
+        <v>1029</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>372</v>
+        <v>1030</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>373</v>
+        <v>1031</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>374</v>
+        <v>1032</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>375</v>
+        <v>1033</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>376</v>
+        <v>1034</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>377</v>
+        <v>1035</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>378</v>
+        <v>1036</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>379</v>
+        <v>1037</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>380</v>
+        <v>1038</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>381</v>
+        <v>1039</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>382</v>
+        <v>1040</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>383</v>
+        <v>1041</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>384</v>
+        <v>1042</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>385</v>
+        <v>1043</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>386</v>
+        <v>1044</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>387</v>
+        <v>1045</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>388</v>
+        <v>1046</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>389</v>
+        <v>1047</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17618,7 +17618,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>390</v>
+        <v>1048</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>391</v>
+        <v>1049</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>392</v>
+        <v>1050</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>393</v>
+        <v>1051</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>394</v>
+        <v>1052</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>395</v>
+        <v>1053</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>396</v>
+        <v>1054</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>397</v>
+        <v>1055</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>398</v>
+        <v>1056</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>399</v>
+        <v>1057</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>400</v>
+        <v>1058</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>401</v>
+        <v>1059</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>402</v>
+        <v>1060</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>403</v>
+        <v>1061</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>404</v>
+        <v>1062</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>405</v>
+        <v>1063</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>406</v>
+        <v>1064</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>407</v>
+        <v>1065</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>408</v>
+        <v>1066</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>409</v>
+        <v>1067</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>410</v>
+        <v>1068</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>411</v>
+        <v>1069</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>412</v>
+        <v>1070</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>413</v>
+        <v>1071</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>414</v>
+        <v>1072</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19267,7 +19267,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>415</v>
+        <v>1073</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>416</v>
+        <v>1074</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>417</v>
+        <v>1075</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>418</v>
+        <v>1076</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>419</v>
+        <v>1077</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>420</v>
+        <v>1078</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>421</v>
+        <v>1079</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>422</v>
+        <v>1080</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>423</v>
+        <v>1081</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>424</v>
+        <v>1082</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>425</v>
+        <v>1083</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -20000,7 +20000,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>426</v>
+        <v>1084</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>427</v>
+        <v>1085</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>428</v>
+        <v>1086</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>429</v>
+        <v>1087</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20262,7 +20262,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>430</v>
+        <v>1088</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>431</v>
+        <v>1089</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>432</v>
+        <v>1090</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>433</v>
+        <v>1091</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>434</v>
+        <v>1092</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>435</v>
+        <v>1093</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>436</v>
+        <v>1094</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>437</v>
+        <v>1095</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20792,7 +20792,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>438</v>
+        <v>1096</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>439</v>
+        <v>1097</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>440</v>
+        <v>1098</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>441</v>
+        <v>1099</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>442</v>
+        <v>1100</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21121,7 +21121,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>443</v>
+        <v>1101</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21188,7 +21188,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>444</v>
+        <v>1102</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21253,7 +21253,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>445</v>
+        <v>1103</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>446</v>
+        <v>1104</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>447</v>
+        <v>1105</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>448</v>
+        <v>1106</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>449</v>
+        <v>1107</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>450</v>
+        <v>1108</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>451</v>
+        <v>1109</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>452</v>
+        <v>1110</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>453</v>
+        <v>1111</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -21842,7 +21842,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>454</v>
+        <v>1112</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>455</v>
+        <v>1113</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>456</v>
+        <v>1114</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>457</v>
+        <v>1115</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>458</v>
+        <v>1116</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>459</v>
+        <v>1117</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22242,7 +22242,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>460</v>
+        <v>1118</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>461</v>
+        <v>1119</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>462</v>
+        <v>1120</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22443,7 +22443,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>463</v>
+        <v>1121</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22510,7 +22510,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>464</v>
+        <v>1122</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>465</v>
+        <v>1123</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>466</v>
+        <v>1124</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>467</v>
+        <v>1125</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>468</v>
+        <v>1126</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>469</v>
+        <v>1127</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>470</v>
+        <v>1128</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>471</v>
+        <v>1129</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23034,7 +23034,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>472</v>
+        <v>1130</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23101,7 +23101,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>473</v>
+        <v>1131</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>474</v>
+        <v>1132</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23235,7 +23235,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>475</v>
+        <v>1133</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>476</v>
+        <v>1134</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>477</v>
+        <v>1135</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>478</v>
+        <v>1136</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23501,7 +23501,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>479</v>
+        <v>1137</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>480</v>
+        <v>1138</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>

--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -163,7 +163,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>2016/07/26</t>
+    <t>2016/07/28</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>810</v>
+        <v>2126</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>811</v>
+        <v>2127</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>812</v>
+        <v>2128</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>813</v>
+        <v>2129</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>814</v>
+        <v>2130</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>815</v>
+        <v>2131</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>816</v>
+        <v>2132</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>817</v>
+        <v>2133</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2472,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>818</v>
+        <v>2134</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2537,7 +2537,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>819</v>
+        <v>2135</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>820</v>
+        <v>2136</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>821</v>
+        <v>2137</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2734,7 +2734,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>822</v>
+        <v>2138</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2801,7 +2801,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>823</v>
+        <v>2139</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>824</v>
+        <v>2140</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -2937,7 +2937,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>825</v>
+        <v>2141</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>826</v>
+        <v>2142</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3073,7 +3073,7 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>827</v>
+        <v>2143</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3138,7 +3138,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>828</v>
+        <v>2144</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>829</v>
+        <v>2145</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3270,7 +3270,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>830</v>
+        <v>2146</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3337,7 +3337,7 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>831</v>
+        <v>2147</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3402,7 +3402,7 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>832</v>
+        <v>2148</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3469,7 +3469,7 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>833</v>
+        <v>2149</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>834</v>
+        <v>2150</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>835</v>
+        <v>2151</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>836</v>
+        <v>2152</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>837</v>
+        <v>2153</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3798,7 +3798,7 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>838</v>
+        <v>2154</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>839</v>
+        <v>2155</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>840</v>
+        <v>2156</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>841</v>
+        <v>2157</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>842</v>
+        <v>2158</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>843</v>
+        <v>2159</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>844</v>
+        <v>2160</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4259,7 +4259,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>845</v>
+        <v>2161</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4326,7 +4326,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>846</v>
+        <v>2162</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4391,7 +4391,7 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>847</v>
+        <v>2163</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4456,7 +4456,7 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>848</v>
+        <v>2164</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4521,7 +4521,7 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>849</v>
+        <v>2165</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>850</v>
+        <v>2166</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>851</v>
+        <v>2167</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>852</v>
+        <v>2168</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4787,7 +4787,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>853</v>
+        <v>2169</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4854,7 +4854,7 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>854</v>
+        <v>2170</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4919,7 +4919,7 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>855</v>
+        <v>2171</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>856</v>
+        <v>2172</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5051,7 +5051,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>857</v>
+        <v>2173</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5116,7 +5116,7 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>858</v>
+        <v>2174</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>859</v>
+        <v>2175</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5248,7 +5248,7 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>860</v>
+        <v>2176</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>861</v>
+        <v>2177</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5378,7 +5378,7 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>862</v>
+        <v>2178</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5445,7 +5445,7 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>863</v>
+        <v>2179</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5512,7 +5512,7 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>864</v>
+        <v>2180</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5577,7 +5577,7 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T56" t="n">
         <v>-1</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>865</v>
+        <v>2181</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T57" t="n">
         <v>-1</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>866</v>
+        <v>2182</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T58" t="n">
         <v>-1</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>867</v>
+        <v>2183</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T59" t="n">
         <v>-1</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>868</v>
+        <v>2184</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T60" t="n">
         <v>-1</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>869</v>
+        <v>2185</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T61" t="n">
         <v>-1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>870</v>
+        <v>2186</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>871</v>
+        <v>2187</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>872</v>
+        <v>2188</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>873</v>
+        <v>2189</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T65" t="n">
         <v>-1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>874</v>
+        <v>2190</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T66" t="n">
         <v>-1</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>875</v>
+        <v>2191</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6301,7 +6301,7 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>876</v>
+        <v>2192</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
         <v>-1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>877</v>
+        <v>2193</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6435,7 +6435,7 @@
         <v>1.5</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T69" t="n">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>878</v>
+        <v>2194</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T70" t="n">
         <v>-1</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>879</v>
+        <v>2195</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6569,7 +6569,7 @@
         <v>1.5</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>880</v>
+        <v>2196</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T72" t="n">
         <v>-1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>881</v>
+        <v>2197</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6701,7 +6701,7 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>882</v>
+        <v>2198</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6768,7 +6768,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>883</v>
+        <v>2199</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6835,7 +6835,7 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>884</v>
+        <v>2200</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -6900,7 +6900,7 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>885</v>
+        <v>2201</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -6967,7 +6967,7 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>886</v>
+        <v>2202</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7032,7 +7032,7 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>887</v>
+        <v>2203</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7099,7 +7099,7 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>888</v>
+        <v>2204</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>889</v>
+        <v>2205</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>890</v>
+        <v>2206</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7294,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>891</v>
+        <v>2207</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>892</v>
+        <v>2208</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>893</v>
+        <v>2209</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>894</v>
+        <v>2210</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7554,7 +7554,7 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>895</v>
+        <v>2211</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7619,7 +7619,7 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>896</v>
+        <v>2212</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7686,7 +7686,7 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>897</v>
+        <v>2213</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7753,7 +7753,7 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>898</v>
+        <v>2214</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>899</v>
+        <v>2215</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>900</v>
+        <v>2216</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>901</v>
+        <v>2217</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T93" t="n">
         <v>-1</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>902</v>
+        <v>2218</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>903</v>
+        <v>2219</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>904</v>
+        <v>2220</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>905</v>
+        <v>2221</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>906</v>
+        <v>2222</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T98" t="n">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>907</v>
+        <v>2223</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>908</v>
+        <v>2224</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>909</v>
+        <v>2225</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>910</v>
+        <v>2226</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>911</v>
+        <v>2227</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>912</v>
+        <v>2228</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T104" t="n">
         <v>-1</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>913</v>
+        <v>2229</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>914</v>
+        <v>2230</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T106" t="n">
         <v>-1</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>915</v>
+        <v>2231</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -8929,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="S107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>916</v>
+        <v>2232</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>917</v>
+        <v>2233</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>918</v>
+        <v>2234</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T110" t="n">
         <v>-1</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>919</v>
+        <v>2235</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>920</v>
+        <v>2236</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T112" t="n">
         <v>-1</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>921</v>
+        <v>2237</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>922</v>
+        <v>2238</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>923</v>
+        <v>2239</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>924</v>
+        <v>2240</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T116" t="n">
         <v>-1</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>925</v>
+        <v>2241</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>926</v>
+        <v>2242</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T118" t="n">
         <v>-1</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>927</v>
+        <v>2243</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>928</v>
+        <v>2244</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>929</v>
+        <v>2245</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>930</v>
+        <v>2246</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T122" t="n">
         <v>-1</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>931</v>
+        <v>2247</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T123" t="n">
         <v>-1</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>932</v>
+        <v>2248</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T124" t="n">
         <v>-1</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>933</v>
+        <v>2249</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T125" t="n">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>934</v>
+        <v>2250</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T126" t="n">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>935</v>
+        <v>2251</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T127" t="n">
         <v>-1</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>936</v>
+        <v>2252</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T128" t="n">
         <v>-1</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>937</v>
+        <v>2253</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T129" t="n">
         <v>-1</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>938</v>
+        <v>2254</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T130" t="n">
         <v>-1</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>939</v>
+        <v>2255</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T131" t="n">
         <v>-1</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>940</v>
+        <v>2256</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T132" t="n">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>941</v>
+        <v>2257</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T133" t="n">
         <v>-1</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>942</v>
+        <v>2258</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T134" t="n">
         <v>-1</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>943</v>
+        <v>2259</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T135" t="n">
         <v>-1</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>944</v>
+        <v>2260</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T136" t="n">
         <v>-1</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>945</v>
+        <v>2261</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T137" t="n">
         <v>-1</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>946</v>
+        <v>2262</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="S138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T138" t="n">
         <v>-1</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>947</v>
+        <v>2263</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11027,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T139" t="n">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>948</v>
+        <v>2264</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T140" t="n">
         <v>-1</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>949</v>
+        <v>2265</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T141" t="n">
         <v>-1</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>950</v>
+        <v>2266</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T142" t="n">
         <v>-1</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>951</v>
+        <v>2267</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T143" t="n">
         <v>-1</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>952</v>
+        <v>2268</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T144" t="n">
         <v>-1</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>953</v>
+        <v>2269</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T145" t="n">
         <v>-1</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>954</v>
+        <v>2270</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11486,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T146" t="n">
         <v>-1</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>955</v>
+        <v>2271</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T147" t="n">
         <v>-1</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>956</v>
+        <v>2272</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T148" t="n">
         <v>-1</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>957</v>
+        <v>2273</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T149" t="n">
         <v>-1</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>958</v>
+        <v>2274</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T150" t="n">
         <v>-1</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>959</v>
+        <v>2275</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T151" t="n">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>960</v>
+        <v>2276</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -11878,7 +11878,7 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T152" t="n">
         <v>-1</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>961</v>
+        <v>2277</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="S153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T153" t="n">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>962</v>
+        <v>2278</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T154" t="n">
         <v>-1</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>963</v>
+        <v>2279</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T155" t="n">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>964</v>
+        <v>2280</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T156" t="n">
         <v>-1</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>965</v>
+        <v>2281</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12205,7 +12205,7 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T157" t="n">
         <v>-1</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>966</v>
+        <v>2282</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12272,7 +12272,7 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T158" t="n">
         <v>-1</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>967</v>
+        <v>2283</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12339,7 +12339,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T159" t="n">
         <v>-1</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>968</v>
+        <v>2284</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T160" t="n">
         <v>-1</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>969</v>
+        <v>2285</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T161" t="n">
         <v>-1</v>
@@ -12494,7 +12494,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>970</v>
+        <v>2286</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T162" t="n">
         <v>-1</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>971</v>
+        <v>2287</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12601,7 +12601,7 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T163" t="n">
         <v>-1</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>972</v>
+        <v>2288</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12666,7 +12666,7 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T164" t="n">
         <v>-1</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>973</v>
+        <v>2289</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12731,7 +12731,7 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T165" t="n">
         <v>-1</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>974</v>
+        <v>2290</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12798,7 +12798,7 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T166" t="n">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>975</v>
+        <v>2291</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -12865,7 +12865,7 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T167" t="n">
         <v>-1</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>976</v>
+        <v>2292</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T168" t="n">
         <v>-1</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>977</v>
+        <v>2293</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T169" t="n">
         <v>-1</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>978</v>
+        <v>2294</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T170" t="n">
         <v>-1</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>979</v>
+        <v>2295</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T171" t="n">
         <v>-1</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>980</v>
+        <v>2296</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T172" t="n">
         <v>-1</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>981</v>
+        <v>2297</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T173" t="n">
         <v>-1</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>982</v>
+        <v>2298</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T174" t="n">
         <v>-1</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>983</v>
+        <v>2299</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T175" t="n">
         <v>-1</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>984</v>
+        <v>2300</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T176" t="n">
         <v>-1</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>985</v>
+        <v>2301</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T177" t="n">
         <v>-1</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>986</v>
+        <v>2302</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T178" t="n">
         <v>-1</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>987</v>
+        <v>2303</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T179" t="n">
         <v>-1</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>988</v>
+        <v>2304</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T180" t="n">
         <v>-1</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>989</v>
+        <v>2305</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T181" t="n">
         <v>-1</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>990</v>
+        <v>2306</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T182" t="n">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>991</v>
+        <v>2307</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T183" t="n">
         <v>-1</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>992</v>
+        <v>2308</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T184" t="n">
         <v>-1</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>993</v>
+        <v>2309</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T185" t="n">
         <v>-1</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>994</v>
+        <v>2310</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T186" t="n">
         <v>-1</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>995</v>
+        <v>2311</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T187" t="n">
         <v>-1</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>996</v>
+        <v>2312</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T188" t="n">
         <v>-1</v>
@@ -14265,7 +14265,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>997</v>
+        <v>2313</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T189" t="n">
         <v>-1</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>998</v>
+        <v>2314</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T190" t="n">
         <v>-1</v>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>999</v>
+        <v>2315</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T191" t="n">
         <v>-1</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>1000</v>
+        <v>2316</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T192" t="n">
         <v>-1</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>1001</v>
+        <v>2317</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T193" t="n">
         <v>-1</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>1002</v>
+        <v>2318</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T194" t="n">
         <v>-1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>1003</v>
+        <v>2319</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T195" t="n">
         <v>-1</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>1004</v>
+        <v>2320</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T196" t="n">
         <v>-1</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>1005</v>
+        <v>2321</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T197" t="n">
         <v>-1</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>1006</v>
+        <v>2322</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T198" t="n">
         <v>-1</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>1007</v>
+        <v>2323</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T199" t="n">
         <v>-1</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>1008</v>
+        <v>2324</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T200" t="n">
         <v>-1</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>1009</v>
+        <v>2325</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T201" t="n">
         <v>-1</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>1010</v>
+        <v>2326</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T202" t="n">
         <v>-1</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>1011</v>
+        <v>2327</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T203" t="n">
         <v>-1</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>1012</v>
+        <v>2328</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T204" t="n">
         <v>-1</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>1013</v>
+        <v>2329</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T205" t="n">
         <v>-1</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>1014</v>
+        <v>2330</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T206" t="n">
         <v>-1</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>1015</v>
+        <v>2331</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T207" t="n">
         <v>-1</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>1016</v>
+        <v>2332</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T208" t="n">
         <v>-1</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>1017</v>
+        <v>2333</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15619,7 +15619,7 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T209" t="n">
         <v>-1</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>1018</v>
+        <v>2334</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15686,7 +15686,7 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T210" t="n">
         <v>-1</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>1019</v>
+        <v>2335</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15753,7 +15753,7 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T211" t="n">
         <v>-1</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>1020</v>
+        <v>2336</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T212" t="n">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>1021</v>
+        <v>2337</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T213" t="n">
         <v>-1</v>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>1022</v>
+        <v>2338</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T214" t="n">
         <v>-1</v>
@@ -15971,7 +15971,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>1023</v>
+        <v>2339</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T215" t="n">
         <v>-1</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>1024</v>
+        <v>2340</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T216" t="n">
         <v>-1</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>1025</v>
+        <v>2341</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T217" t="n">
         <v>-1</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>1026</v>
+        <v>2342</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T218" t="n">
         <v>-1</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>1027</v>
+        <v>2343</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T219" t="n">
         <v>-1</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>1028</v>
+        <v>2344</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T220" t="n">
         <v>-1</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>1029</v>
+        <v>2345</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T221" t="n">
         <v>-1</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>1030</v>
+        <v>2346</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16476,7 +16476,7 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T222" t="n">
         <v>-1</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>1031</v>
+        <v>2347</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T223" t="n">
         <v>-1</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>1032</v>
+        <v>2348</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T224" t="n">
         <v>-1</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>1033</v>
+        <v>2349</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T225" t="n">
         <v>-1</v>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>1034</v>
+        <v>2350</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16748,7 +16748,7 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T226" t="n">
         <v>-1</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>1035</v>
+        <v>2351</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T227" t="n">
         <v>-1</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>1036</v>
+        <v>2352</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -16879,7 +16879,7 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T228" t="n">
         <v>-1</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>1037</v>
+        <v>2353</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T229" t="n">
         <v>-1</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>1038</v>
+        <v>2354</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T230" t="n">
         <v>-1</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>1039</v>
+        <v>2355</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T231" t="n">
         <v>-1</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>1040</v>
+        <v>2356</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T232" t="n">
         <v>-1</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>1041</v>
+        <v>2357</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T233" t="n">
         <v>-1</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>1042</v>
+        <v>2358</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T234" t="n">
         <v>-1</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>1043</v>
+        <v>2359</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T235" t="n">
         <v>-1</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>1044</v>
+        <v>2360</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17400,7 +17400,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T236" t="n">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>1045</v>
+        <v>2361</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T237" t="n">
         <v>-1</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>1046</v>
+        <v>2362</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T238" t="n">
         <v>-1</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>1047</v>
+        <v>2363</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T239" t="n">
         <v>-1</v>
@@ -17618,7 +17618,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>1048</v>
+        <v>2364</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T240" t="n">
         <v>-1</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>1049</v>
+        <v>2365</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T241" t="n">
         <v>-1</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>1050</v>
+        <v>2366</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T242" t="n">
         <v>-1</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>1051</v>
+        <v>2367</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T243" t="n">
         <v>-1</v>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>1052</v>
+        <v>2368</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T244" t="n">
         <v>-1</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>1053</v>
+        <v>2369</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T245" t="n">
         <v>-1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>1054</v>
+        <v>2370</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T246" t="n">
         <v>-1</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>1055</v>
+        <v>2371</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T247" t="n">
         <v>-1</v>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>1056</v>
+        <v>2372</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18180,7 +18180,7 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T248" t="n">
         <v>-1</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>1057</v>
+        <v>2373</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T249" t="n">
         <v>-1</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>1058</v>
+        <v>2374</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18312,7 +18312,7 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T250" t="n">
         <v>-1</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>1059</v>
+        <v>2375</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T251" t="n">
         <v>-1</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>1060</v>
+        <v>2376</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18446,7 +18446,7 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T252" t="n">
         <v>-1</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>1061</v>
+        <v>2377</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T253" t="n">
         <v>-1</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>1062</v>
+        <v>2378</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T254" t="n">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>1063</v>
+        <v>2379</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T255" t="n">
         <v>-1</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>1064</v>
+        <v>2380</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T256" t="n">
         <v>-1</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>1065</v>
+        <v>2381</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18777,7 +18777,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T257" t="n">
         <v>-1</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>1066</v>
+        <v>2382</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -18844,7 +18844,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T258" t="n">
         <v>-1</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>1067</v>
+        <v>2383</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -18911,7 +18911,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T259" t="n">
         <v>-1</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>1068</v>
+        <v>2384</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -18978,7 +18978,7 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T260" t="n">
         <v>-1</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>1069</v>
+        <v>2385</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19045,7 +19045,7 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T261" t="n">
         <v>-1</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>1070</v>
+        <v>2386</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19112,7 +19112,7 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T262" t="n">
         <v>-1</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>1071</v>
+        <v>2387</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19179,7 +19179,7 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T263" t="n">
         <v>-1</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>1072</v>
+        <v>2388</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T264" t="n">
         <v>-1</v>
@@ -19267,7 +19267,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>1073</v>
+        <v>2389</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T265" t="n">
         <v>-1</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>1074</v>
+        <v>2390</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T266" t="n">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>1075</v>
+        <v>2391</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T267" t="n">
         <v>-1</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>1076</v>
+        <v>2392</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>1077</v>
+        <v>2393</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T269" t="n">
         <v>-1</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>1078</v>
+        <v>2394</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T270" t="n">
         <v>-1</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>1079</v>
+        <v>2395</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19711,7 +19711,7 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T271" t="n">
         <v>-1</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>1080</v>
+        <v>2396</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19778,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T272" t="n">
         <v>-1</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>1081</v>
+        <v>2397</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -19845,7 +19845,7 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T273" t="n">
         <v>-1</v>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>1082</v>
+        <v>2398</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T274" t="n">
         <v>-1</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>1083</v>
+        <v>2399</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T275" t="n">
         <v>-1</v>
@@ -20000,7 +20000,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>1084</v>
+        <v>2400</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T276" t="n">
         <v>-1</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>1085</v>
+        <v>2401</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20109,7 +20109,7 @@
         <v>3</v>
       </c>
       <c r="S277" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T277" t="n">
         <v>-1</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>1086</v>
+        <v>2402</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20174,7 +20174,7 @@
         <v>3</v>
       </c>
       <c r="S278" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T278" t="n">
         <v>-1</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>1087</v>
+        <v>2403</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T279" t="n">
         <v>-1</v>
@@ -20262,7 +20262,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>1088</v>
+        <v>2404</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T280" t="n">
         <v>-1</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>1089</v>
+        <v>2405</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T281" t="n">
         <v>-1</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>1090</v>
+        <v>2406</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20434,7 +20434,7 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T282" t="n">
         <v>-1</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>1091</v>
+        <v>2407</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20501,7 +20501,7 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T283" t="n">
         <v>-1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>1092</v>
+        <v>2408</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20568,7 +20568,7 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T284" t="n">
         <v>-1</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>1093</v>
+        <v>2409</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20635,7 +20635,7 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T285" t="n">
         <v>-1</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>1094</v>
+        <v>2410</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20702,7 +20702,7 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T286" t="n">
         <v>-1</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>1095</v>
+        <v>2411</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20769,7 +20769,7 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T287" t="n">
         <v>-1</v>
@@ -20792,7 +20792,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>1096</v>
+        <v>2412</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T288" t="n">
         <v>-1</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>1097</v>
+        <v>2413</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T289" t="n">
         <v>-1</v>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>1098</v>
+        <v>2414</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T290" t="n">
         <v>-1</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>1099</v>
+        <v>2415</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T291" t="n">
         <v>-1</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>1100</v>
+        <v>2416</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T292" t="n">
         <v>-1</v>
@@ -21121,7 +21121,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>1101</v>
+        <v>2417</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T293" t="n">
         <v>-1</v>
@@ -21188,7 +21188,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>1102</v>
+        <v>2418</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T294" t="n">
         <v>-1</v>
@@ -21253,7 +21253,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>1103</v>
+        <v>2419</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T295" t="n">
         <v>-1</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>1104</v>
+        <v>2420</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T296" t="n">
         <v>-1</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>1105</v>
+        <v>2421</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T297" t="n">
         <v>-1</v>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>1106</v>
+        <v>2422</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T298" t="n">
         <v>-1</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>1107</v>
+        <v>2423</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T299" t="n">
         <v>-1</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>1108</v>
+        <v>2424</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T300" t="n">
         <v>-1</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>1109</v>
+        <v>2425</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T301" t="n">
         <v>-1</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>1110</v>
+        <v>2426</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21752,7 +21752,7 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T302" t="n">
         <v>-1</v>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>1111</v>
+        <v>2427</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -21819,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="S303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T303" t="n">
         <v>-1</v>
@@ -21842,7 +21842,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>1112</v>
+        <v>2428</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -21886,7 +21886,7 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T304" t="n">
         <v>-1</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>1113</v>
+        <v>2429</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -21953,7 +21953,7 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T305" t="n">
         <v>-1</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>1114</v>
+        <v>2430</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22020,7 +22020,7 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T306" t="n">
         <v>-1</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>1115</v>
+        <v>2431</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22087,7 +22087,7 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T307" t="n">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>1116</v>
+        <v>2432</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22152,7 +22152,7 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T308" t="n">
         <v>-1</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>1117</v>
+        <v>2433</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22219,7 +22219,7 @@
         <v>1.5</v>
       </c>
       <c r="S309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T309" t="n">
         <v>-1</v>
@@ -22242,7 +22242,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>1118</v>
+        <v>2434</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22286,7 +22286,7 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T310" t="n">
         <v>-1</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>1119</v>
+        <v>2435</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22353,7 +22353,7 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T311" t="n">
         <v>-1</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>1120</v>
+        <v>2436</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22420,7 +22420,7 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T312" t="n">
         <v>-1</v>
@@ -22443,7 +22443,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>1121</v>
+        <v>2437</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22487,7 +22487,7 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T313" t="n">
         <v>-1</v>
@@ -22510,7 +22510,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>1122</v>
+        <v>2438</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22552,7 +22552,7 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T314" t="n">
         <v>-1</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>1123</v>
+        <v>2439</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22617,7 +22617,7 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T315" t="n">
         <v>-1</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>1124</v>
+        <v>2440</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22684,7 +22684,7 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T316" t="n">
         <v>-1</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>1125</v>
+        <v>2441</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22749,7 +22749,7 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T317" t="n">
         <v>-1</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>1126</v>
+        <v>2442</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T318" t="n">
         <v>-1</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>1127</v>
+        <v>2443</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -22879,7 +22879,7 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T319" t="n">
         <v>-1</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>1128</v>
+        <v>2444</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -22944,7 +22944,7 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T320" t="n">
         <v>-1</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>1129</v>
+        <v>2445</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23011,7 +23011,7 @@
         <v>1.5</v>
       </c>
       <c r="S321" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T321" t="n">
         <v>-1</v>
@@ -23034,7 +23034,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>1130</v>
+        <v>2446</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23078,7 +23078,7 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T322" t="n">
         <v>-1</v>
@@ -23101,7 +23101,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>1131</v>
+        <v>2447</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23145,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T323" t="n">
         <v>-1</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>1132</v>
+        <v>2448</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23212,7 +23212,7 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T324" t="n">
         <v>-1</v>
@@ -23235,7 +23235,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>1133</v>
+        <v>2449</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23279,7 +23279,7 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T325" t="n">
         <v>-1</v>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>1134</v>
+        <v>2450</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23344,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T326" t="n">
         <v>-1</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>1135</v>
+        <v>2451</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23411,7 +23411,7 @@
         <v>1.5</v>
       </c>
       <c r="S327" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T327" t="n">
         <v>-1</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>1136</v>
+        <v>2452</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23478,7 +23478,7 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T328" t="n">
         <v>-1</v>
@@ -23501,7 +23501,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>1137</v>
+        <v>2453</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23545,7 +23545,7 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T329" t="n">
         <v>-1</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>1138</v>
+        <v>2454</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>
@@ -23612,7 +23612,7 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T330" t="n">
         <v>-1</v>

--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -163,7 +163,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>2016/07/28</t>
+    <t>2016/07/29</t>
   </si>
   <si>
     <t>AADbvzAApAAAAFdAAA</t>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -2472,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -2537,7 +2537,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -2667,7 +2667,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -2734,7 +2734,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -2801,7 +2801,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -2937,7 +2937,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -3073,7 +3073,7 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -3138,7 +3138,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -3270,7 +3270,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -3337,7 +3337,7 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -3402,7 +3402,7 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -3469,7 +3469,7 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -3798,7 +3798,7 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -4259,7 +4259,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4326,7 +4326,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -4391,7 +4391,7 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -4456,7 +4456,7 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -4521,7 +4521,7 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -4588,7 +4588,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -4787,7 +4787,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -4854,7 +4854,7 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -4919,7 +4919,7 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -5051,7 +5051,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -5116,7 +5116,7 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -5248,7 +5248,7 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -5378,7 +5378,7 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -5445,7 +5445,7 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -5512,7 +5512,7 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>
@@ -5577,7 +5577,7 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="n">
         <v>-1</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" t="n">
         <v>-1</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="n">
         <v>-1</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="n">
         <v>-1</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="n">
         <v>-1</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="n">
         <v>-1</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65" t="n">
         <v>-1</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="n">
         <v>-1</v>
@@ -6301,7 +6301,7 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="n">
         <v>-1</v>
@@ -6435,7 +6435,7 @@
         <v>1.5</v>
       </c>
       <c r="S69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69" t="n">
         <v>-1</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T70" t="n">
         <v>-1</v>
@@ -6569,7 +6569,7 @@
         <v>1.5</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T72" t="n">
         <v>-1</v>
@@ -6701,7 +6701,7 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
@@ -6768,7 +6768,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6835,7 +6835,7 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -6967,7 +6967,7 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -7032,7 +7032,7 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -7099,7 +7099,7 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="S81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -7294,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="S82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -7554,7 +7554,7 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -7619,7 +7619,7 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7686,7 +7686,7 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7753,7 +7753,7 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T93" t="n">
         <v>-1</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T98" t="n">
         <v>-1</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T104" t="n">
         <v>-1</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T106" t="n">
         <v>-1</v>
@@ -8929,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="S107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T110" t="n">
         <v>-1</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T112" t="n">
         <v>-1</v>
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T116" t="n">
         <v>-1</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T118" t="n">
         <v>-1</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T122" t="n">
         <v>-1</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T123" t="n">
         <v>-1</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T124" t="n">
         <v>-1</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T125" t="n">
         <v>-1</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T126" t="n">
         <v>-1</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T127" t="n">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T128" t="n">
         <v>-1</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T129" t="n">
         <v>-1</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T130" t="n">
         <v>-1</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T131" t="n">
         <v>-1</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T132" t="n">
         <v>-1</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T133" t="n">
         <v>-1</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T134" t="n">
         <v>-1</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T135" t="n">
         <v>-1</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T136" t="n">
         <v>-1</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T137" t="n">
         <v>-1</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="S138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T138" t="n">
         <v>-1</v>
@@ -11027,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T139" t="n">
         <v>-1</v>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T140" t="n">
         <v>-1</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T141" t="n">
         <v>-1</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T142" t="n">
         <v>-1</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T143" t="n">
         <v>-1</v>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T144" t="n">
         <v>-1</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T145" t="n">
         <v>-1</v>
@@ -11486,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T146" t="n">
         <v>-1</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T147" t="n">
         <v>-1</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T148" t="n">
         <v>-1</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T149" t="n">
         <v>-1</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T150" t="n">
         <v>-1</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T151" t="n">
         <v>-1</v>
@@ -11878,7 +11878,7 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T152" t="n">
         <v>-1</v>
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="S153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T153" t="n">
         <v>-1</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T154" t="n">
         <v>-1</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T155" t="n">
         <v>-1</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T156" t="n">
         <v>-1</v>
@@ -12205,7 +12205,7 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T157" t="n">
         <v>-1</v>
@@ -12272,7 +12272,7 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T158" t="n">
         <v>-1</v>
@@ -12339,7 +12339,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T159" t="n">
         <v>-1</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T160" t="n">
         <v>-1</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T161" t="n">
         <v>-1</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T162" t="n">
         <v>-1</v>
@@ -12601,7 +12601,7 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T163" t="n">
         <v>-1</v>
@@ -12666,7 +12666,7 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T164" t="n">
         <v>-1</v>
@@ -12731,7 +12731,7 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T165" t="n">
         <v>-1</v>
@@ -12798,7 +12798,7 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T166" t="n">
         <v>-1</v>
@@ -12865,7 +12865,7 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T167" t="n">
         <v>-1</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T168" t="n">
         <v>-1</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T169" t="n">
         <v>-1</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T170" t="n">
         <v>-1</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T171" t="n">
         <v>-1</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T172" t="n">
         <v>-1</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T173" t="n">
         <v>-1</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T174" t="n">
         <v>-1</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T175" t="n">
         <v>-1</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T176" t="n">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T177" t="n">
         <v>-1</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T178" t="n">
         <v>-1</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T179" t="n">
         <v>-1</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T180" t="n">
         <v>-1</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T181" t="n">
         <v>-1</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T182" t="n">
         <v>-1</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T183" t="n">
         <v>-1</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T184" t="n">
         <v>-1</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T185" t="n">
         <v>-1</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T186" t="n">
         <v>-1</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T187" t="n">
         <v>-1</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T188" t="n">
         <v>-1</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T189" t="n">
         <v>-1</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T190" t="n">
         <v>-1</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T191" t="n">
         <v>-1</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T192" t="n">
         <v>-1</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T193" t="n">
         <v>-1</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T194" t="n">
         <v>-1</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T195" t="n">
         <v>-1</v>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T196" t="n">
         <v>-1</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T197" t="n">
         <v>-1</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T198" t="n">
         <v>-1</v>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T199" t="n">
         <v>-1</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T200" t="n">
         <v>-1</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T201" t="n">
         <v>-1</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T202" t="n">
         <v>-1</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T203" t="n">
         <v>-1</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T204" t="n">
         <v>-1</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T205" t="n">
         <v>-1</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T206" t="n">
         <v>-1</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T207" t="n">
         <v>-1</v>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T208" t="n">
         <v>-1</v>
@@ -15619,7 +15619,7 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T209" t="n">
         <v>-1</v>
@@ -15686,7 +15686,7 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T210" t="n">
         <v>-1</v>
@@ -15753,7 +15753,7 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T211" t="n">
         <v>-1</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T212" t="n">
         <v>-1</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T213" t="n">
         <v>-1</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T214" t="n">
         <v>-1</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T215" t="n">
         <v>-1</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T216" t="n">
         <v>-1</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T217" t="n">
         <v>-1</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T218" t="n">
         <v>-1</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T219" t="n">
         <v>-1</v>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T220" t="n">
         <v>-1</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T221" t="n">
         <v>-1</v>
@@ -16476,7 +16476,7 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T222" t="n">
         <v>-1</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T223" t="n">
         <v>-1</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T224" t="n">
         <v>-1</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T225" t="n">
         <v>-1</v>
@@ -16748,7 +16748,7 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T226" t="n">
         <v>-1</v>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T227" t="n">
         <v>-1</v>
@@ -16879,7 +16879,7 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T228" t="n">
         <v>-1</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T229" t="n">
         <v>-1</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T230" t="n">
         <v>-1</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T231" t="n">
         <v>-1</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T232" t="n">
         <v>-1</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T233" t="n">
         <v>-1</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T234" t="n">
         <v>-1</v>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T235" t="n">
         <v>-1</v>
@@ -17400,7 +17400,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T236" t="n">
         <v>-1</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T237" t="n">
         <v>-1</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T238" t="n">
         <v>-1</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T239" t="n">
         <v>-1</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T240" t="n">
         <v>-1</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T241" t="n">
         <v>-1</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T242" t="n">
         <v>-1</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T243" t="n">
         <v>-1</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T244" t="n">
         <v>-1</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T245" t="n">
         <v>-1</v>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T246" t="n">
         <v>-1</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T247" t="n">
         <v>-1</v>
@@ -18180,7 +18180,7 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T248" t="n">
         <v>-1</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T249" t="n">
         <v>-1</v>
@@ -18312,7 +18312,7 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T250" t="n">
         <v>-1</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T251" t="n">
         <v>-1</v>
@@ -18446,7 +18446,7 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T252" t="n">
         <v>-1</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T253" t="n">
         <v>-1</v>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T254" t="n">
         <v>-1</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T255" t="n">
         <v>-1</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T256" t="n">
         <v>-1</v>
@@ -18777,7 +18777,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T257" t="n">
         <v>-1</v>
@@ -18844,7 +18844,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T258" t="n">
         <v>-1</v>
@@ -18911,7 +18911,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T259" t="n">
         <v>-1</v>
@@ -18978,7 +18978,7 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T260" t="n">
         <v>-1</v>
@@ -19045,7 +19045,7 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T261" t="n">
         <v>-1</v>
@@ -19112,7 +19112,7 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T262" t="n">
         <v>-1</v>
@@ -19179,7 +19179,7 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T263" t="n">
         <v>-1</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T264" t="n">
         <v>-1</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T265" t="n">
         <v>-1</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T266" t="n">
         <v>-1</v>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T267" t="n">
         <v>-1</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T269" t="n">
         <v>-1</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T270" t="n">
         <v>-1</v>
@@ -19711,7 +19711,7 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T271" t="n">
         <v>-1</v>
@@ -19778,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T272" t="n">
         <v>-1</v>
@@ -19845,7 +19845,7 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T273" t="n">
         <v>-1</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T274" t="n">
         <v>-1</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T275" t="n">
         <v>-1</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T276" t="n">
         <v>-1</v>
@@ -20109,7 +20109,7 @@
         <v>3</v>
       </c>
       <c r="S277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T277" t="n">
         <v>-1</v>
@@ -20174,7 +20174,7 @@
         <v>3</v>
       </c>
       <c r="S278" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T278" t="n">
         <v>-1</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T279" t="n">
         <v>-1</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T280" t="n">
         <v>-1</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T281" t="n">
         <v>-1</v>
@@ -20434,7 +20434,7 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T282" t="n">
         <v>-1</v>
@@ -20501,7 +20501,7 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T283" t="n">
         <v>-1</v>
@@ -20568,7 +20568,7 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T284" t="n">
         <v>-1</v>
@@ -20635,7 +20635,7 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T285" t="n">
         <v>-1</v>
@@ -20702,7 +20702,7 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T286" t="n">
         <v>-1</v>
@@ -20769,7 +20769,7 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T287" t="n">
         <v>-1</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T288" t="n">
         <v>-1</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T289" t="n">
         <v>-1</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T290" t="n">
         <v>-1</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T291" t="n">
         <v>-1</v>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T292" t="n">
         <v>-1</v>
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T293" t="n">
         <v>-1</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T294" t="n">
         <v>-1</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T295" t="n">
         <v>-1</v>
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T296" t="n">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T297" t="n">
         <v>-1</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T298" t="n">
         <v>-1</v>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T299" t="n">
         <v>-1</v>
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T300" t="n">
         <v>-1</v>
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T301" t="n">
         <v>-1</v>
@@ -21752,7 +21752,7 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T302" t="n">
         <v>-1</v>
@@ -21819,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="S303" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T303" t="n">
         <v>-1</v>
@@ -21886,7 +21886,7 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T304" t="n">
         <v>-1</v>
@@ -21953,7 +21953,7 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T305" t="n">
         <v>-1</v>
@@ -22020,7 +22020,7 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T306" t="n">
         <v>-1</v>
@@ -22087,7 +22087,7 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T307" t="n">
         <v>-1</v>
@@ -22152,7 +22152,7 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T308" t="n">
         <v>-1</v>
@@ -22219,7 +22219,7 @@
         <v>1.5</v>
       </c>
       <c r="S309" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T309" t="n">
         <v>-1</v>
@@ -22286,7 +22286,7 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T310" t="n">
         <v>-1</v>
@@ -22353,7 +22353,7 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T311" t="n">
         <v>-1</v>
@@ -22420,7 +22420,7 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T312" t="n">
         <v>-1</v>
@@ -22487,7 +22487,7 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T313" t="n">
         <v>-1</v>
@@ -22552,7 +22552,7 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T314" t="n">
         <v>-1</v>
@@ -22617,7 +22617,7 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T315" t="n">
         <v>-1</v>
@@ -22684,7 +22684,7 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T316" t="n">
         <v>-1</v>
@@ -22749,7 +22749,7 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T317" t="n">
         <v>-1</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T318" t="n">
         <v>-1</v>
@@ -22879,7 +22879,7 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T319" t="n">
         <v>-1</v>
@@ -22944,7 +22944,7 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T320" t="n">
         <v>-1</v>
@@ -23011,7 +23011,7 @@
         <v>1.5</v>
       </c>
       <c r="S321" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T321" t="n">
         <v>-1</v>
@@ -23078,7 +23078,7 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T322" t="n">
         <v>-1</v>
@@ -23145,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T323" t="n">
         <v>-1</v>
@@ -23212,7 +23212,7 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T324" t="n">
         <v>-1</v>
@@ -23279,7 +23279,7 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T325" t="n">
         <v>-1</v>
@@ -23344,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T326" t="n">
         <v>-1</v>
@@ -23411,7 +23411,7 @@
         <v>1.5</v>
       </c>
       <c r="S327" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T327" t="n">
         <v>-1</v>
@@ -23478,7 +23478,7 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T328" t="n">
         <v>-1</v>
@@ -23545,7 +23545,7 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T329" t="n">
         <v>-1</v>
@@ -23612,7 +23612,7 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T330" t="n">
         <v>-1</v>

--- a/new索引表.xlsx
+++ b/new索引表.xlsx
@@ -1965,7 +1965,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="n">
-        <v>2126</v>
+        <v>2784</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
         <v>-1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="n">
-        <v>2127</v>
+        <v>2785</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="4" spans="1:41">
       <c r="A4" s="1" t="n">
-        <v>2128</v>
+        <v>2786</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
         <v>-1</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="5" spans="1:41">
       <c r="A5" s="1" t="n">
-        <v>2129</v>
+        <v>2787</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
         <v>-1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" s="1" t="n">
-        <v>2130</v>
+        <v>2788</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
         <v>-1</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="1" t="n">
-        <v>2131</v>
+        <v>2789</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" s="1" t="n">
-        <v>2132</v>
+        <v>2790</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T8" t="n">
         <v>-1</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="1" t="n">
-        <v>2133</v>
+        <v>2791</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
@@ -2472,7 +2472,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
         <v>-1</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="1" t="n">
-        <v>2134</v>
+        <v>2792</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
@@ -2537,7 +2537,7 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T10" t="n">
         <v>-1</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="1" t="n">
-        <v>2135</v>
+        <v>2793</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -2602,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
         <v>-1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="12" spans="1:41">
       <c r="A12" s="1" t="n">
-        <v>2136</v>
+        <v>2794</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>9</v>
@@ -2667,7 +2667,7 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T12" t="n">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="13" spans="1:41">
       <c r="A13" s="1" t="n">
-        <v>2137</v>
+        <v>2795</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>9</v>
@@ -2734,7 +2734,7 @@
         <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
         <v>-1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="14" spans="1:41">
       <c r="A14" s="1" t="n">
-        <v>2138</v>
+        <v>2796</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>9</v>
@@ -2801,7 +2801,7 @@
         <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T14" t="n">
         <v>-1</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="15" spans="1:41">
       <c r="A15" s="1" t="n">
-        <v>2139</v>
+        <v>2797</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>9</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T15" t="n">
         <v>-1</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" s="1" t="n">
-        <v>2140</v>
+        <v>2798</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -2937,7 +2937,7 @@
         <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T16" t="n">
         <v>-1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" s="1" t="n">
-        <v>2141</v>
+        <v>2799</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
         <v>-1</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" s="1" t="n">
-        <v>2142</v>
+        <v>2800</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>9</v>
@@ -3073,7 +3073,7 @@
         <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" s="1" t="n">
-        <v>2143</v>
+        <v>2801</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -3138,7 +3138,7 @@
         <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T19" t="n">
         <v>-1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" s="1" t="n">
-        <v>2144</v>
+        <v>2802</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T20" t="n">
         <v>-1</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" s="1" t="n">
-        <v>2145</v>
+        <v>2803</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>12</v>
@@ -3270,7 +3270,7 @@
         <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T21" t="n">
         <v>-1</v>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" s="1" t="n">
-        <v>2146</v>
+        <v>2804</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>13</v>
@@ -3337,7 +3337,7 @@
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
         <v>-1</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" s="1" t="n">
-        <v>2147</v>
+        <v>2805</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>14</v>
@@ -3402,7 +3402,7 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T23" t="n">
         <v>-1</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" s="1" t="n">
-        <v>2148</v>
+        <v>2806</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>14</v>
@@ -3469,7 +3469,7 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T24" t="n">
         <v>-1</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" s="1" t="n">
-        <v>2149</v>
+        <v>2807</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T25" t="n">
         <v>-1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="1" t="n">
-        <v>2150</v>
+        <v>2808</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
         <v>-1</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="1" t="n">
-        <v>2151</v>
+        <v>2809</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>16</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
         <v>-1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" s="1" t="n">
-        <v>2152</v>
+        <v>2810</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>16</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T28" t="n">
         <v>-1</v>
@@ -3754,7 +3754,7 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" s="1" t="n">
-        <v>2153</v>
+        <v>2811</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>17</v>
@@ -3798,7 +3798,7 @@
         <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
         <v>-1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" s="1" t="n">
-        <v>2154</v>
+        <v>2812</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>18</v>
@@ -3865,7 +3865,7 @@
         <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T30" t="n">
         <v>-1</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" s="1" t="n">
-        <v>2155</v>
+        <v>2813</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T31" t="n">
         <v>-1</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" s="1" t="n">
-        <v>2156</v>
+        <v>2814</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>20</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T32" t="n">
         <v>-1</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" s="1" t="n">
-        <v>2157</v>
+        <v>2815</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>20</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T33" t="n">
         <v>-1</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" s="1" t="n">
-        <v>2158</v>
+        <v>2816</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>21</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" s="1" t="n">
-        <v>2159</v>
+        <v>2817</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>22</v>
@@ -4192,7 +4192,7 @@
         <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T35" t="n">
         <v>-1</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" s="1" t="n">
-        <v>2160</v>
+        <v>2818</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>23</v>
@@ -4259,7 +4259,7 @@
         <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T36" t="n">
         <v>-1</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="1" t="n">
-        <v>2161</v>
+        <v>2819</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>23</v>
@@ -4326,7 +4326,7 @@
         <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T37" t="n">
         <v>-1</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="1" t="n">
-        <v>2162</v>
+        <v>2820</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -4391,7 +4391,7 @@
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T38" t="n">
         <v>-1</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="1" t="n">
-        <v>2163</v>
+        <v>2821</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>25</v>
@@ -4456,7 +4456,7 @@
         <v>1.5</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T39" t="n">
         <v>-1</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" s="1" t="n">
-        <v>2164</v>
+        <v>2822</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>26</v>
@@ -4521,7 +4521,7 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T40" t="n">
         <v>-1</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" s="1" t="n">
-        <v>2165</v>
+        <v>2823</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>26</v>
@@ -4588,7 +4588,7 @@
         <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T41" t="n">
         <v>-1</v>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" s="1" t="n">
-        <v>2166</v>
+        <v>2824</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>27</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
         <v>-1</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" s="1" t="n">
-        <v>2167</v>
+        <v>2825</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>27</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T43" t="n">
         <v>-1</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" s="1" t="n">
-        <v>2168</v>
+        <v>2826</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>28</v>
@@ -4787,7 +4787,7 @@
         <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T44" t="n">
         <v>-1</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" s="1" t="n">
-        <v>2169</v>
+        <v>2827</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>28</v>
@@ -4854,7 +4854,7 @@
         <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T45" t="n">
         <v>-1</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" s="1" t="n">
-        <v>2170</v>
+        <v>2828</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>29</v>
@@ -4919,7 +4919,7 @@
         <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T46" t="n">
         <v>-1</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" s="1" t="n">
-        <v>2171</v>
+        <v>2829</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>29</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T47" t="n">
         <v>-1</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" s="1" t="n">
-        <v>2172</v>
+        <v>2830</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>30</v>
@@ -5051,7 +5051,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T48" t="n">
         <v>-1</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" s="1" t="n">
-        <v>2173</v>
+        <v>2831</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>31</v>
@@ -5116,7 +5116,7 @@
         <v>1.5</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T49" t="n">
         <v>-1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" s="1" t="n">
-        <v>2174</v>
+        <v>2832</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>31</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T50" t="n">
         <v>-1</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" s="1" t="n">
-        <v>2175</v>
+        <v>2833</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>32</v>
@@ -5248,7 +5248,7 @@
         <v>1.5</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T51" t="n">
         <v>-1</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" s="1" t="n">
-        <v>2176</v>
+        <v>2834</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>32</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T52" t="n">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="1" t="n">
-        <v>2177</v>
+        <v>2835</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>33</v>
@@ -5378,7 +5378,7 @@
         <v>1.5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T53" t="n">
         <v>-1</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="1" t="n">
-        <v>2178</v>
+        <v>2836</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>33</v>
@@ -5445,7 +5445,7 @@
         <v>1.5</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T54" t="n">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="1" t="n">
-        <v>2179</v>
+        <v>2837</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>33</v>
@@ -5512,7 +5512,7 @@
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T55" t="n">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="1" t="n">
-        <v>2180</v>
+        <v>2838</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>34</v>
@@ -5577,7 +5577,7 @@
         <v>1.5</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T56" t="n">
         <v>-1</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" s="1" t="n">
-        <v>2181</v>
+        <v>2839</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>35</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T57" t="n">
         <v>-1</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" s="1" t="n">
-        <v>2182</v>
+        <v>2840</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>35</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T58" t="n">
         <v>-1</v>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="1" t="n">
-        <v>2183</v>
+        <v>2841</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>36</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T59" t="n">
         <v>-1</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="1" t="n">
-        <v>2184</v>
+        <v>2842</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>36</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T60" t="n">
         <v>-1</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="1" t="n">
-        <v>2185</v>
+        <v>2843</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>37</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T61" t="n">
         <v>-1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" s="1" t="n">
-        <v>2186</v>
+        <v>2844</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>37</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" s="1" t="n">
-        <v>2187</v>
+        <v>2845</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>37</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -6058,7 +6058,7 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="1" t="n">
-        <v>2188</v>
+        <v>2846</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>37</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" s="1" t="n">
-        <v>2189</v>
+        <v>2847</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>38</v>
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T65" t="n">
         <v>-1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" s="1" t="n">
-        <v>2190</v>
+        <v>2848</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>38</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T66" t="n">
         <v>-1</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" s="1" t="n">
-        <v>2191</v>
+        <v>2849</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>38</v>
@@ -6301,7 +6301,7 @@
         <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" s="1" t="n">
-        <v>2192</v>
+        <v>2850</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>38</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T68" t="n">
         <v>-1</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" s="1" t="n">
-        <v>2193</v>
+        <v>2851</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>38</v>
@@ -6435,7 +6435,7 @@
         <v>1.5</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T69" t="n">
         <v>-1</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="1" t="n">
-        <v>2194</v>
+        <v>2852</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>38</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T70" t="n">
         <v>-1</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" s="1" t="n">
-        <v>2195</v>
+        <v>2853</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>38</v>
@@ -6569,7 +6569,7 @@
         <v>1.5</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="1" t="n">
-        <v>2196</v>
+        <v>2854</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>38</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T72" t="n">
         <v>-1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="1" t="n">
-        <v>2197</v>
+        <v>2855</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>39</v>
@@ -6701,7 +6701,7 @@
         <v>1.5</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" s="1" t="n">
-        <v>2198</v>
+        <v>2856</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>39</v>
@@ -6768,7 +6768,7 @@
         <v>1.5</v>
       </c>
       <c r="S74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" s="1" t="n">
-        <v>2199</v>
+        <v>2857</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>39</v>
@@ -6835,7 +6835,7 @@
         <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" s="1" t="n">
-        <v>2200</v>
+        <v>2858</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40</v>
@@ -6900,7 +6900,7 @@
         <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" s="1" t="n">
-        <v>2201</v>
+        <v>2859</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40</v>
@@ -6967,7 +6967,7 @@
         <v>1.5</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" s="1" t="n">
-        <v>2202</v>
+        <v>2860</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>41</v>
@@ -7032,7 +7032,7 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" s="1" t="n">
-        <v>2203</v>
+        <v>2861</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42</v>
@@ -7099,7 +7099,7 @@
         <v>1.5</v>
       </c>
       <c r="S79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" s="1" t="n">
-        <v>2204</v>
+        <v>2862</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>43</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" s="1" t="n">
-        <v>2205</v>
+        <v>2863</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>44</v>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="S81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -7252,7 +7252,7 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" s="1" t="n">
-        <v>2206</v>
+        <v>2864</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45</v>
@@ -7294,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="S82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" s="1" t="n">
-        <v>2207</v>
+        <v>2865</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" s="1" t="n">
-        <v>2208</v>
+        <v>2866</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>46</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" s="1" t="n">
-        <v>2209</v>
+        <v>2867</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>46</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" s="1" t="n">
-        <v>2210</v>
+        <v>2868</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>47</v>
@@ -7554,7 +7554,7 @@
         <v>1.5</v>
       </c>
       <c r="S86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" s="1" t="n">
-        <v>2211</v>
+        <v>2869</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>48</v>
@@ -7619,7 +7619,7 @@
         <v>1.5</v>
       </c>
       <c r="S87" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7642,7 +7642,7 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" s="1" t="n">
-        <v>2212</v>
+        <v>2870</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>48</v>
@@ -7686,7 +7686,7 @@
         <v>1.5</v>
       </c>
       <c r="S88" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" s="1" t="n">
-        <v>2213</v>
+        <v>2871</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>48</v>
@@ -7753,7 +7753,7 @@
         <v>1.5</v>
       </c>
       <c r="S89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7776,7 +7776,7 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" s="1" t="n">
-        <v>2214</v>
+        <v>2872</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>48</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" s="1" t="n">
-        <v>2215</v>
+        <v>2873</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>49</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" s="1" t="n">
-        <v>2216</v>
+        <v>2874</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>49</v>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" s="1" t="n">
-        <v>2217</v>
+        <v>2875</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>49</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T93" t="n">
         <v>-1</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" s="1" t="n">
-        <v>2218</v>
+        <v>2876</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>49</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" s="1" t="n">
-        <v>2219</v>
+        <v>2877</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>49</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" s="1" t="n">
-        <v>2220</v>
+        <v>2878</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>49</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" s="1" t="n">
-        <v>2221</v>
+        <v>2879</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>49</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" s="1" t="n">
-        <v>2222</v>
+        <v>2880</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>49</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T98" t="n">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" s="1" t="n">
-        <v>2223</v>
+        <v>2881</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>49</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" s="1" t="n">
-        <v>2224</v>
+        <v>2882</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>49</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" s="1" t="n">
-        <v>2225</v>
+        <v>2883</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>50</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" s="1" t="n">
-        <v>2226</v>
+        <v>2884</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>51</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" s="1" t="n">
-        <v>2227</v>
+        <v>2885</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>52</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" s="1" t="n">
-        <v>2228</v>
+        <v>2886</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>53</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T104" t="n">
         <v>-1</v>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" s="1" t="n">
-        <v>2229</v>
+        <v>2887</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>54</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" s="1" t="n">
-        <v>2230</v>
+        <v>2888</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>54</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T106" t="n">
         <v>-1</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" s="1" t="n">
-        <v>2231</v>
+        <v>2889</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>55</v>
@@ -8929,7 +8929,7 @@
         <v>3</v>
       </c>
       <c r="S107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" s="1" t="n">
-        <v>2232</v>
+        <v>2890</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>55</v>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" s="1" t="n">
-        <v>2233</v>
+        <v>2891</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>55</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" s="1" t="n">
-        <v>2234</v>
+        <v>2892</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>56</v>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T110" t="n">
         <v>-1</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" s="1" t="n">
-        <v>2235</v>
+        <v>2893</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>57</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" s="1" t="n">
-        <v>2236</v>
+        <v>2894</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>57</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T112" t="n">
         <v>-1</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" s="1" t="n">
-        <v>2237</v>
+        <v>2895</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>58</v>
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" s="1" t="n">
-        <v>2238</v>
+        <v>2896</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>58</v>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" s="1" t="n">
-        <v>2239</v>
+        <v>2897</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>58</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9476,7 +9476,7 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" s="1" t="n">
-        <v>2240</v>
+        <v>2898</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>58</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T116" t="n">
         <v>-1</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" s="1" t="n">
-        <v>2241</v>
+        <v>2899</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>58</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" s="1" t="n">
-        <v>2242</v>
+        <v>2900</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>58</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T118" t="n">
         <v>-1</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" s="1" t="n">
-        <v>2243</v>
+        <v>2901</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>58</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" s="1" t="n">
-        <v>2244</v>
+        <v>2902</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>58</v>
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" s="1" t="n">
-        <v>2245</v>
+        <v>2903</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>58</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" s="1" t="n">
-        <v>2246</v>
+        <v>2904</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>58</v>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T122" t="n">
         <v>-1</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" s="1" t="n">
-        <v>2247</v>
+        <v>2905</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>58</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T123" t="n">
         <v>-1</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" s="1" t="n">
-        <v>2248</v>
+        <v>2906</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>59</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T124" t="n">
         <v>-1</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" s="1" t="n">
-        <v>2249</v>
+        <v>2907</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>59</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T125" t="n">
         <v>-1</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" s="1" t="n">
-        <v>2250</v>
+        <v>2908</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>60</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T126" t="n">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" s="1" t="n">
-        <v>2251</v>
+        <v>2909</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>60</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T127" t="n">
         <v>-1</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" s="1" t="n">
-        <v>2252</v>
+        <v>2910</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>61</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T128" t="n">
         <v>-1</v>
@@ -10331,7 +10331,7 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" s="1" t="n">
-        <v>2253</v>
+        <v>2911</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>61</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T129" t="n">
         <v>-1</v>
@@ -10398,7 +10398,7 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" s="1" t="n">
-        <v>2254</v>
+        <v>2912</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>62</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T130" t="n">
         <v>-1</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" s="1" t="n">
-        <v>2255</v>
+        <v>2913</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>63</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T131" t="n">
         <v>-1</v>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" s="1" t="n">
-        <v>2256</v>
+        <v>2914</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>64</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T132" t="n">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" s="1" t="n">
-        <v>2257</v>
+        <v>2915</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>64</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T133" t="n">
         <v>-1</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" s="1" t="n">
-        <v>2258</v>
+        <v>2916</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>65</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T134" t="n">
         <v>-1</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" s="1" t="n">
-        <v>2259</v>
+        <v>2917</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>66</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T135" t="n">
         <v>-1</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" s="1" t="n">
-        <v>2260</v>
+        <v>2918</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>66</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T136" t="n">
         <v>-1</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" s="1" t="n">
-        <v>2261</v>
+        <v>2919</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>66</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T137" t="n">
         <v>-1</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" s="1" t="n">
-        <v>2262</v>
+        <v>2920</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>67</v>
@@ -10960,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="S138" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T138" t="n">
         <v>-1</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" s="1" t="n">
-        <v>2263</v>
+        <v>2921</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>67</v>
@@ -11027,7 +11027,7 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T139" t="n">
         <v>-1</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" s="1" t="n">
-        <v>2264</v>
+        <v>2922</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>67</v>
@@ -11092,7 +11092,7 @@
         <v>5</v>
       </c>
       <c r="S140" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T140" t="n">
         <v>-1</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" s="1" t="n">
-        <v>2265</v>
+        <v>2923</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>67</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T141" t="n">
         <v>-1</v>
@@ -11180,7 +11180,7 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" s="1" t="n">
-        <v>2266</v>
+        <v>2924</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>67</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T142" t="n">
         <v>-1</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" s="1" t="n">
-        <v>2267</v>
+        <v>2925</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>67</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T143" t="n">
         <v>-1</v>
@@ -11312,7 +11312,7 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" s="1" t="n">
-        <v>2268</v>
+        <v>2926</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>67</v>
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T144" t="n">
         <v>-1</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" s="1" t="n">
-        <v>2269</v>
+        <v>2927</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>67</v>
@@ -11421,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T145" t="n">
         <v>-1</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="1" t="n">
-        <v>2270</v>
+        <v>2928</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>68</v>
@@ -11486,7 +11486,7 @@
         <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T146" t="n">
         <v>-1</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" s="1" t="n">
-        <v>2271</v>
+        <v>2929</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>69</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T147" t="n">
         <v>-1</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" s="1" t="n">
-        <v>2272</v>
+        <v>2930</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>70</v>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T148" t="n">
         <v>-1</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="1" t="n">
-        <v>2273</v>
+        <v>2931</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>70</v>
@@ -11681,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T149" t="n">
         <v>-1</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" s="1" t="n">
-        <v>2274</v>
+        <v>2932</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>70</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T150" t="n">
         <v>-1</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="1" t="n">
-        <v>2275</v>
+        <v>2933</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>70</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T151" t="n">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" s="1" t="n">
-        <v>2276</v>
+        <v>2934</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71</v>
@@ -11878,7 +11878,7 @@
         <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T152" t="n">
         <v>-1</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" s="1" t="n">
-        <v>2277</v>
+        <v>2935</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>72</v>
@@ -11943,7 +11943,7 @@
         <v>3</v>
       </c>
       <c r="S153" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T153" t="n">
         <v>-1</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="1" t="n">
-        <v>2278</v>
+        <v>2936</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>73</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T154" t="n">
         <v>-1</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" s="1" t="n">
-        <v>2279</v>
+        <v>2937</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>73</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T155" t="n">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="1" t="n">
-        <v>2280</v>
+        <v>2938</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>74</v>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T156" t="n">
         <v>-1</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" s="1" t="n">
-        <v>2281</v>
+        <v>2939</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>75</v>
@@ -12205,7 +12205,7 @@
         <v>1.5</v>
       </c>
       <c r="S157" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T157" t="n">
         <v>-1</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" s="1" t="n">
-        <v>2282</v>
+        <v>2940</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>75</v>
@@ -12272,7 +12272,7 @@
         <v>1.5</v>
       </c>
       <c r="S158" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T158" t="n">
         <v>-1</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="1" t="n">
-        <v>2283</v>
+        <v>2941</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>75</v>
@@ -12339,7 +12339,7 @@
         <v>1.5</v>
       </c>
       <c r="S159" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T159" t="n">
         <v>-1</v>
@@ -12362,7 +12362,7 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" s="1" t="n">
-        <v>2284</v>
+        <v>2942</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>75</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T160" t="n">
         <v>-1</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="1" t="n">
-        <v>2285</v>
+        <v>2943</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>75</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T161" t="n">
         <v>-1</v>
@@ -12494,7 +12494,7 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" s="1" t="n">
-        <v>2286</v>
+        <v>2944</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>75</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T162" t="n">
         <v>-1</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" s="1" t="n">
-        <v>2287</v>
+        <v>2945</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>76</v>
@@ -12601,7 +12601,7 @@
         <v>1.5</v>
       </c>
       <c r="S163" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T163" t="n">
         <v>-1</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="1" t="n">
-        <v>2288</v>
+        <v>2946</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>77</v>
@@ -12666,7 +12666,7 @@
         <v>3</v>
       </c>
       <c r="S164" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T164" t="n">
         <v>-1</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" s="1" t="n">
-        <v>2289</v>
+        <v>2947</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>78</v>
@@ -12731,7 +12731,7 @@
         <v>1.5</v>
       </c>
       <c r="S165" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T165" t="n">
         <v>-1</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="1" t="n">
-        <v>2290</v>
+        <v>2948</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>78</v>
@@ -12798,7 +12798,7 @@
         <v>1.5</v>
       </c>
       <c r="S166" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T166" t="n">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" s="1" t="n">
-        <v>2291</v>
+        <v>2949</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>78</v>
@@ -12865,7 +12865,7 @@
         <v>1.5</v>
       </c>
       <c r="S167" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T167" t="n">
         <v>-1</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" s="1" t="n">
-        <v>2292</v>
+        <v>2950</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>78</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T168" t="n">
         <v>-1</v>
@@ -12953,7 +12953,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="1" t="n">
-        <v>2293</v>
+        <v>2951</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>79</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T169" t="n">
         <v>-1</v>
@@ -13018,7 +13018,7 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" s="1" t="n">
-        <v>2294</v>
+        <v>2952</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>79</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T170" t="n">
         <v>-1</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="1" t="n">
-        <v>2295</v>
+        <v>2953</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>79</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T171" t="n">
         <v>-1</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" s="1" t="n">
-        <v>2296</v>
+        <v>2954</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>80</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T172" t="n">
         <v>-1</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" s="1" t="n">
-        <v>2297</v>
+        <v>2955</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>80</v>
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T173" t="n">
         <v>-1</v>
@@ -13280,7 +13280,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="1" t="n">
-        <v>2298</v>
+        <v>2956</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>80</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T174" t="n">
         <v>-1</v>
@@ -13347,7 +13347,7 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" s="1" t="n">
-        <v>2299</v>
+        <v>2957</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>80</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T175" t="n">
         <v>-1</v>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="1" t="n">
-        <v>2300</v>
+        <v>2958</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>80</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T176" t="n">
         <v>-1</v>
@@ -13479,7 +13479,7 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" s="1" t="n">
-        <v>2301</v>
+        <v>2959</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>80</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T177" t="n">
         <v>-1</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" s="1" t="n">
-        <v>2302</v>
+        <v>2960</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>81</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T178" t="n">
         <v>-1</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="1" t="n">
-        <v>2303</v>
+        <v>2961</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>81</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T179" t="n">
         <v>-1</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" s="1" t="n">
-        <v>2304</v>
+        <v>2962</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>82</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T180" t="n">
         <v>-1</v>
@@ -13739,7 +13739,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="1" t="n">
-        <v>2305</v>
+        <v>2963</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>83</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T181" t="n">
         <v>-1</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" s="1" t="n">
-        <v>2306</v>
+        <v>2964</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>84</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T182" t="n">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" s="1" t="n">
-        <v>2307</v>
+        <v>2965</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>85</v>
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T183" t="n">
         <v>-1</v>
@@ -13934,7 +13934,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="1" t="n">
-        <v>2308</v>
+        <v>2966</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>85</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T184" t="n">
         <v>-1</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" s="1" t="n">
-        <v>2309</v>
+        <v>2967</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>85</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T185" t="n">
         <v>-1</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="1" t="n">
-        <v>2310</v>
+        <v>2968</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>85</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T186" t="n">
         <v>-1</v>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" s="1" t="n">
-        <v>2311</v>
+        <v>2969</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>85</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T187" t="n">
         <v>-1</v>
@@ -14198,7 +14198,7 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" s="1" t="n">
-        <v>2312</v>
+        <v>2970</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>85</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T188" t="n">
         <v>-1</v>
@@ -14265,7 +14265,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="1" t="n">
-        <v>2313</v>
+        <v>2971</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>85</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T189" t="n">
         <v>-1</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" s="1" t="n">
-        <v>2314</v>
+        <v>2972</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>85</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T190" t="n">
         <v>-1</v>
@@ -14397,7 +14397,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="1" t="n">
-        <v>2315</v>
+        <v>2973</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>85</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T191" t="n">
         <v>-1</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" s="1" t="n">
-        <v>2316</v>
+        <v>2974</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>85</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T192" t="n">
         <v>-1</v>
@@ -14527,7 +14527,7 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" s="1" t="n">
-        <v>2317</v>
+        <v>2975</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>86</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T193" t="n">
         <v>-1</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="1" t="n">
-        <v>2318</v>
+        <v>2976</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>86</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T194" t="n">
         <v>-1</v>
@@ -14659,7 +14659,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" s="1" t="n">
-        <v>2319</v>
+        <v>2977</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>87</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T195" t="n">
         <v>-1</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="1" t="n">
-        <v>2320</v>
+        <v>2978</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>88</v>
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T196" t="n">
         <v>-1</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" s="1" t="n">
-        <v>2321</v>
+        <v>2979</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>88</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T197" t="n">
         <v>-1</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" s="1" t="n">
-        <v>2322</v>
+        <v>2980</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>88</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T198" t="n">
         <v>-1</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="1" t="n">
-        <v>2323</v>
+        <v>2981</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>88</v>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T199" t="n">
         <v>-1</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" s="1" t="n">
-        <v>2324</v>
+        <v>2982</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>89</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T200" t="n">
         <v>-1</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="1" t="n">
-        <v>2325</v>
+        <v>2983</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>90</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T201" t="n">
         <v>-1</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" s="1" t="n">
-        <v>2326</v>
+        <v>2984</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>90</v>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T202" t="n">
         <v>-1</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" s="1" t="n">
-        <v>2327</v>
+        <v>2985</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>90</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T203" t="n">
         <v>-1</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="1" t="n">
-        <v>2328</v>
+        <v>2986</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>90</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T204" t="n">
         <v>-1</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" s="1" t="n">
-        <v>2329</v>
+        <v>2987</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>90</v>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T205" t="n">
         <v>-1</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="1" t="n">
-        <v>2330</v>
+        <v>2988</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>90</v>
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T206" t="n">
         <v>-1</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" s="1" t="n">
-        <v>2331</v>
+        <v>2989</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>90</v>
@@ -15489,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T207" t="n">
         <v>-1</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" s="1" t="n">
-        <v>2332</v>
+        <v>2990</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>90</v>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T208" t="n">
         <v>-1</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" s="1" t="n">
-        <v>2333</v>
+        <v>2991</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>91</v>
@@ -15619,7 +15619,7 @@
         <v>1.5</v>
       </c>
       <c r="S209" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T209" t="n">
         <v>-1</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" s="1" t="n">
-        <v>2334</v>
+        <v>2992</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>91</v>
@@ -15686,7 +15686,7 @@
         <v>1.5</v>
       </c>
       <c r="S210" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T210" t="n">
         <v>-1</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" s="1" t="n">
-        <v>2335</v>
+        <v>2993</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>91</v>
@@ -15753,7 +15753,7 @@
         <v>1.5</v>
       </c>
       <c r="S211" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T211" t="n">
         <v>-1</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" s="1" t="n">
-        <v>2336</v>
+        <v>2994</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>92</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T212" t="n">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" s="1" t="n">
-        <v>2337</v>
+        <v>2995</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>93</v>
@@ -15883,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T213" t="n">
         <v>-1</v>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" s="1" t="n">
-        <v>2338</v>
+        <v>2996</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>93</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T214" t="n">
         <v>-1</v>
@@ -15971,7 +15971,7 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" s="1" t="n">
-        <v>2339</v>
+        <v>2997</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>93</v>
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T215" t="n">
         <v>-1</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" s="1" t="n">
-        <v>2340</v>
+        <v>2998</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>93</v>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T216" t="n">
         <v>-1</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" s="1" t="n">
-        <v>2341</v>
+        <v>2999</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>94</v>
@@ -16145,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T217" t="n">
         <v>-1</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" s="1" t="n">
-        <v>2342</v>
+        <v>3000</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>94</v>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="S218" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T218" t="n">
         <v>-1</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" s="1" t="n">
-        <v>2343</v>
+        <v>3001</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>94</v>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T219" t="n">
         <v>-1</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" s="1" t="n">
-        <v>2344</v>
+        <v>3002</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>95</v>
@@ -16342,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T220" t="n">
         <v>-1</v>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" s="1" t="n">
-        <v>2345</v>
+        <v>3003</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>95</v>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T221" t="n">
         <v>-1</v>
@@ -16432,7 +16432,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" s="1" t="n">
-        <v>2346</v>
+        <v>3004</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>96</v>
@@ -16476,7 +16476,7 @@
         <v>1.5</v>
       </c>
       <c r="S222" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T222" t="n">
         <v>-1</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" s="1" t="n">
-        <v>2347</v>
+        <v>3005</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>96</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T223" t="n">
         <v>-1</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" s="1" t="n">
-        <v>2348</v>
+        <v>3006</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>96</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="S224" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T224" t="n">
         <v>-1</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" s="1" t="n">
-        <v>2349</v>
+        <v>3007</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>96</v>
@@ -16681,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T225" t="n">
         <v>-1</v>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" s="1" t="n">
-        <v>2350</v>
+        <v>3008</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>96</v>
@@ -16748,7 +16748,7 @@
         <v>1.5</v>
       </c>
       <c r="S226" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T226" t="n">
         <v>-1</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" s="1" t="n">
-        <v>2351</v>
+        <v>3009</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>97</v>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T227" t="n">
         <v>-1</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" s="1" t="n">
-        <v>2352</v>
+        <v>3010</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>98</v>
@@ -16879,7 +16879,7 @@
         <v>1.5</v>
       </c>
       <c r="S228" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T228" t="n">
         <v>-1</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" s="1" t="n">
-        <v>2353</v>
+        <v>3011</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>99</v>
@@ -16945,7 +16945,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T229" t="n">
         <v>-1</v>
@@ -16968,7 +16968,7 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" s="1" t="n">
-        <v>2354</v>
+        <v>3012</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>100</v>
@@ -17011,7 +17011,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T230" t="n">
         <v>-1</v>
@@ -17034,7 +17034,7 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" s="1" t="n">
-        <v>2355</v>
+        <v>3013</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>101</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T231" t="n">
         <v>-1</v>
@@ -17100,7 +17100,7 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" s="1" t="n">
-        <v>2356</v>
+        <v>3014</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>102</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T232" t="n">
         <v>-1</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" s="1" t="n">
-        <v>2357</v>
+        <v>3015</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>103</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T233" t="n">
         <v>-1</v>
@@ -17228,7 +17228,7 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" s="1" t="n">
-        <v>2358</v>
+        <v>3016</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>103</v>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T234" t="n">
         <v>-1</v>
@@ -17295,7 +17295,7 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" s="1" t="n">
-        <v>2359</v>
+        <v>3017</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>104</v>
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T235" t="n">
         <v>-1</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" s="1" t="n">
-        <v>2360</v>
+        <v>3018</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>105</v>
@@ -17400,7 +17400,7 @@
         <v>1.5</v>
       </c>
       <c r="S236" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T236" t="n">
         <v>-1</v>
@@ -17423,7 +17423,7 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" s="1" t="n">
-        <v>2361</v>
+        <v>3019</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>106</v>
@@ -17465,7 +17465,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T237" t="n">
         <v>-1</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" s="1" t="n">
-        <v>2362</v>
+        <v>3020</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>106</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T238" t="n">
         <v>-1</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" s="1" t="n">
-        <v>2363</v>
+        <v>3021</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>106</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T239" t="n">
         <v>-1</v>
@@ -17618,7 +17618,7 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" s="1" t="n">
-        <v>2364</v>
+        <v>3022</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>106</v>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T240" t="n">
         <v>-1</v>
@@ -17683,7 +17683,7 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" s="1" t="n">
-        <v>2365</v>
+        <v>3023</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>107</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T241" t="n">
         <v>-1</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" s="1" t="n">
-        <v>2366</v>
+        <v>3024</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>107</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T242" t="n">
         <v>-1</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" s="1" t="n">
-        <v>2367</v>
+        <v>3025</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>107</v>
@@ -17855,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T243" t="n">
         <v>-1</v>
@@ -17878,7 +17878,7 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" s="1" t="n">
-        <v>2368</v>
+        <v>3026</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>107</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T244" t="n">
         <v>-1</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" s="1" t="n">
-        <v>2369</v>
+        <v>3027</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>108</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T245" t="n">
         <v>-1</v>
@@ -18008,7 +18008,7 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" s="1" t="n">
-        <v>2370</v>
+        <v>3028</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>108</v>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T246" t="n">
         <v>-1</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" s="1" t="n">
-        <v>2371</v>
+        <v>3029</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>109</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T247" t="n">
         <v>-1</v>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" s="1" t="n">
-        <v>2372</v>
+        <v>3030</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>110</v>
@@ -18180,7 +18180,7 @@
         <v>4</v>
       </c>
       <c r="S248" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T248" t="n">
         <v>-1</v>
@@ -18203,7 +18203,7 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" s="1" t="n">
-        <v>2373</v>
+        <v>3031</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>110</v>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T249" t="n">
         <v>-1</v>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" s="1" t="n">
-        <v>2374</v>
+        <v>3032</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>110</v>
@@ -18312,7 +18312,7 @@
         <v>5</v>
       </c>
       <c r="S250" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T250" t="n">
         <v>-1</v>
@@ -18335,7 +18335,7 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" s="1" t="n">
-        <v>2375</v>
+        <v>3033</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>110</v>
@@ -18379,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T251" t="n">
         <v>-1</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" s="1" t="n">
-        <v>2376</v>
+        <v>3034</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>110</v>
@@ -18446,7 +18446,7 @@
         <v>5</v>
       </c>
       <c r="S252" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T252" t="n">
         <v>-1</v>
@@ -18469,7 +18469,7 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" s="1" t="n">
-        <v>2377</v>
+        <v>3035</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>110</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T253" t="n">
         <v>-1</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" s="1" t="n">
-        <v>2378</v>
+        <v>3036</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>110</v>
@@ -18580,7 +18580,7 @@
         <v>5</v>
       </c>
       <c r="S254" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T254" t="n">
         <v>-1</v>
@@ -18603,7 +18603,7 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" s="1" t="n">
-        <v>2379</v>
+        <v>3037</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>110</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T255" t="n">
         <v>-1</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" s="1" t="n">
-        <v>2380</v>
+        <v>3038</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>110</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T256" t="n">
         <v>-1</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" s="1" t="n">
-        <v>2381</v>
+        <v>3039</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>111</v>
@@ -18777,7 +18777,7 @@
         <v>2</v>
       </c>
       <c r="S257" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T257" t="n">
         <v>-1</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" s="1" t="n">
-        <v>2382</v>
+        <v>3040</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>111</v>
@@ -18844,7 +18844,7 @@
         <v>2</v>
       </c>
       <c r="S258" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T258" t="n">
         <v>-1</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" s="1" t="n">
-        <v>2383</v>
+        <v>3041</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>111</v>
@@ -18911,7 +18911,7 @@
         <v>2</v>
       </c>
       <c r="S259" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T259" t="n">
         <v>-1</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" s="1" t="n">
-        <v>2384</v>
+        <v>3042</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>111</v>
@@ -18978,7 +18978,7 @@
         <v>2</v>
       </c>
       <c r="S260" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T260" t="n">
         <v>-1</v>
@@ -19001,7 +19001,7 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" s="1" t="n">
-        <v>2385</v>
+        <v>3043</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>111</v>
@@ -19045,7 +19045,7 @@
         <v>3</v>
       </c>
       <c r="S261" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T261" t="n">
         <v>-1</v>
@@ -19068,7 +19068,7 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" s="1" t="n">
-        <v>2386</v>
+        <v>3044</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>111</v>
@@ -19112,7 +19112,7 @@
         <v>3</v>
       </c>
       <c r="S262" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T262" t="n">
         <v>-1</v>
@@ -19135,7 +19135,7 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" s="1" t="n">
-        <v>2387</v>
+        <v>3045</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>111</v>
@@ -19179,7 +19179,7 @@
         <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T263" t="n">
         <v>-1</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" s="1" t="n">
-        <v>2388</v>
+        <v>3046</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>112</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T264" t="n">
         <v>-1</v>
@@ -19267,7 +19267,7 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" s="1" t="n">
-        <v>2389</v>
+        <v>3047</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>112</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T265" t="n">
         <v>-1</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" s="1" t="n">
-        <v>2390</v>
+        <v>3048</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>112</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T266" t="n">
         <v>-1</v>
@@ -19401,7 +19401,7 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" s="1" t="n">
-        <v>2391</v>
+        <v>3049</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>112</v>
@@ -19445,7 +19445,7 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T267" t="n">
         <v>-1</v>
@@ -19468,7 +19468,7 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" s="1" t="n">
-        <v>2392</v>
+        <v>3050</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>112</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T268" t="n">
         <v>-1</v>
@@ -19535,7 +19535,7 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" s="1" t="n">
-        <v>2393</v>
+        <v>3051</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>112</v>
@@ -19579,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T269" t="n">
         <v>-1</v>
@@ -19602,7 +19602,7 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" s="1" t="n">
-        <v>2394</v>
+        <v>3052</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>112</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="S270" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T270" t="n">
         <v>-1</v>
@@ -19669,7 +19669,7 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" s="1" t="n">
-        <v>2395</v>
+        <v>3053</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>113</v>
@@ -19711,7 +19711,7 @@
         <v>2</v>
       </c>
       <c r="S271" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T271" t="n">
         <v>-1</v>
@@ -19734,7 +19734,7 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" s="1" t="n">
-        <v>2396</v>
+        <v>3054</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>113</v>
@@ -19778,7 +19778,7 @@
         <v>2</v>
       </c>
       <c r="S272" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T272" t="n">
         <v>-1</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" s="1" t="n">
-        <v>2397</v>
+        <v>3055</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>113</v>
@@ -19845,7 +19845,7 @@
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T273" t="n">
         <v>-1</v>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" s="1" t="n">
-        <v>2398</v>
+        <v>3056</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>114</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="S274" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T274" t="n">
         <v>-1</v>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" s="1" t="n">
-        <v>2399</v>
+        <v>3057</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>114</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T275" t="n">
         <v>-1</v>
@@ -20000,7 +20000,7 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" s="1" t="n">
-        <v>2400</v>
+        <v>3058</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>114</v>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T276" t="n">
         <v>-1</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" s="1" t="n">
-        <v>2401</v>
+        <v>3059</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>115</v>
@@ -20109,7 +20109,7 @@
         <v>3</v>
       </c>
       <c r="S277" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T277" t="n">
         <v>-1</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" s="1" t="n">
-        <v>2402</v>
+        <v>3060</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>116</v>
@@ -20174,7 +20174,7 @@
         <v>3</v>
       </c>
       <c r="S278" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T278" t="n">
         <v>-1</v>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" s="1" t="n">
-        <v>2403</v>
+        <v>3061</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>116</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="S279" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T279" t="n">
         <v>-1</v>
@@ -20262,7 +20262,7 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" s="1" t="n">
-        <v>2404</v>
+        <v>3062</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>117</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T280" t="n">
         <v>-1</v>
@@ -20327,7 +20327,7 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" s="1" t="n">
-        <v>2405</v>
+        <v>3063</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>117</v>
@@ -20369,7 +20369,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T281" t="n">
         <v>-1</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" s="1" t="n">
-        <v>2406</v>
+        <v>3064</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>118</v>
@@ -20434,7 +20434,7 @@
         <v>4</v>
       </c>
       <c r="S282" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T282" t="n">
         <v>-1</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" s="1" t="n">
-        <v>2407</v>
+        <v>3065</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>118</v>
@@ -20501,7 +20501,7 @@
         <v>5</v>
       </c>
       <c r="S283" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T283" t="n">
         <v>-1</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" s="1" t="n">
-        <v>2408</v>
+        <v>3066</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>118</v>
@@ -20568,7 +20568,7 @@
         <v>5</v>
       </c>
       <c r="S284" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T284" t="n">
         <v>-1</v>
@@ -20591,7 +20591,7 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" s="1" t="n">
-        <v>2409</v>
+        <v>3067</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>118</v>
@@ -20635,7 +20635,7 @@
         <v>5</v>
       </c>
       <c r="S285" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T285" t="n">
         <v>-1</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" s="1" t="n">
-        <v>2410</v>
+        <v>3068</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>118</v>
@@ -20702,7 +20702,7 @@
         <v>5</v>
       </c>
       <c r="S286" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T286" t="n">
         <v>-1</v>
@@ -20725,7 +20725,7 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" s="1" t="n">
-        <v>2411</v>
+        <v>3069</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>118</v>
@@ -20769,7 +20769,7 @@
         <v>5</v>
       </c>
       <c r="S287" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T287" t="n">
         <v>-1</v>
@@ -20792,7 +20792,7 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" s="1" t="n">
-        <v>2412</v>
+        <v>3070</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>118</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T288" t="n">
         <v>-1</v>
@@ -20857,7 +20857,7 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" s="1" t="n">
-        <v>2413</v>
+        <v>3071</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>118</v>
@@ -20901,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T289" t="n">
         <v>-1</v>
@@ -20924,7 +20924,7 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" s="1" t="n">
-        <v>2414</v>
+        <v>3072</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>118</v>
@@ -20966,7 +20966,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T290" t="n">
         <v>-1</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" s="1" t="n">
-        <v>2415</v>
+        <v>3073</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>118</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T291" t="n">
         <v>-1</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" s="1" t="n">
-        <v>2416</v>
+        <v>3074</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>119</v>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="S292" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T292" t="n">
         <v>-1</v>
@@ -21121,7 +21121,7 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" s="1" t="n">
-        <v>2417</v>
+        <v>3075</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>119</v>
@@ -21165,7 +21165,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T293" t="n">
         <v>-1</v>
@@ -21188,7 +21188,7 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" s="1" t="n">
-        <v>2418</v>
+        <v>3076</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>119</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="S294" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T294" t="n">
         <v>-1</v>
@@ -21253,7 +21253,7 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" s="1" t="n">
-        <v>2419</v>
+        <v>3077</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>119</v>
@@ -21295,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T295" t="n">
         <v>-1</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" s="1" t="n">
-        <v>2420</v>
+        <v>3078</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>119</v>
@@ -21360,7 +21360,7 @@
         <v>0</v>
       </c>
       <c r="S296" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T296" t="n">
         <v>-1</v>
@@ -21383,7 +21383,7 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" s="1" t="n">
-        <v>2421</v>
+        <v>3079</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>119</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T297" t="n">
         <v>-1</v>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" s="1" t="n">
-        <v>2422</v>
+        <v>3080</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>119</v>
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T298" t="n">
         <v>-1</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" s="1" t="n">
-        <v>2423</v>
+        <v>3081</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>119</v>
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="S299" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T299" t="n">
         <v>-1</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" s="1" t="n">
-        <v>2424</v>
+        <v>3082</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>119</v>
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T300" t="n">
         <v>-1</v>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" s="1" t="n">
-        <v>2425</v>
+        <v>3083</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>119</v>
@@ -21687,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="S301" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T301" t="n">
         <v>-1</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" s="1" t="n">
-        <v>2426</v>
+        <v>3084</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>120</v>
@@ -21752,7 +21752,7 @@
         <v>1.5</v>
       </c>
       <c r="S302" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T302" t="n">
         <v>-1</v>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" s="1" t="n">
-        <v>2427</v>
+        <v>3085</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>120</v>
@@ -21819,7 +21819,7 @@
         <v>1.5</v>
       </c>
       <c r="S303" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T303" t="n">
         <v>-1</v>
@@ -21842,7 +21842,7 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" s="1" t="n">
-        <v>2428</v>
+        <v>3086</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>121</v>
@@ -21886,7 +21886,7 @@
         <v>1.5</v>
       </c>
       <c r="S304" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T304" t="n">
         <v>-1</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" s="1" t="n">
-        <v>2429</v>
+        <v>3087</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>121</v>
@@ -21953,7 +21953,7 @@
         <v>1.5</v>
       </c>
       <c r="S305" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T305" t="n">
         <v>-1</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" s="1" t="n">
-        <v>2430</v>
+        <v>3088</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>122</v>
@@ -22020,7 +22020,7 @@
         <v>1.5</v>
       </c>
       <c r="S306" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T306" t="n">
         <v>-1</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" s="1" t="n">
-        <v>2431</v>
+        <v>3089</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>122</v>
@@ -22087,7 +22087,7 @@
         <v>1.5</v>
       </c>
       <c r="S307" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T307" t="n">
         <v>-1</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" s="1" t="n">
-        <v>2432</v>
+        <v>3090</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>123</v>
@@ -22152,7 +22152,7 @@
         <v>1.5</v>
       </c>
       <c r="S308" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T308" t="n">
         <v>-1</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" s="1" t="n">
-        <v>2433</v>
+        <v>3091</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>123</v>
@@ -22219,7 +22219,7 @@
         <v>1.5</v>
       </c>
       <c r="S309" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T309" t="n">
         <v>-1</v>
@@ -22242,7 +22242,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" s="1" t="n">
-        <v>2434</v>
+        <v>3092</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>123</v>
@@ -22286,7 +22286,7 @@
         <v>1.5</v>
       </c>
       <c r="S310" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T310" t="n">
         <v>-1</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" s="1" t="n">
-        <v>2435</v>
+        <v>3093</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>123</v>
@@ -22353,7 +22353,7 @@
         <v>1.5</v>
       </c>
       <c r="S311" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T311" t="n">
         <v>-1</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" s="1" t="n">
-        <v>2436</v>
+        <v>3094</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>123</v>
@@ -22420,7 +22420,7 @@
         <v>1.5</v>
       </c>
       <c r="S312" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T312" t="n">
         <v>-1</v>
@@ -22443,7 +22443,7 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" s="1" t="n">
-        <v>2437</v>
+        <v>3095</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>124</v>
@@ -22487,7 +22487,7 @@
         <v>1.5</v>
       </c>
       <c r="S313" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T313" t="n">
         <v>-1</v>
@@ -22510,7 +22510,7 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" s="1" t="n">
-        <v>2438</v>
+        <v>3096</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>124</v>
@@ -22552,7 +22552,7 @@
         <v>1.5</v>
       </c>
       <c r="S314" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T314" t="n">
         <v>-1</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" s="1" t="n">
-        <v>2439</v>
+        <v>3097</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>125</v>
@@ -22617,7 +22617,7 @@
         <v>1.5</v>
       </c>
       <c r="S315" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T315" t="n">
         <v>-1</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" s="1" t="n">
-        <v>2440</v>
+        <v>3098</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>125</v>
@@ -22684,7 +22684,7 @@
         <v>1.5</v>
       </c>
       <c r="S316" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T316" t="n">
         <v>-1</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" s="1" t="n">
-        <v>2441</v>
+        <v>3099</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>126</v>
@@ -22749,7 +22749,7 @@
         <v>1.5</v>
       </c>
       <c r="S317" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T317" t="n">
         <v>-1</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" s="1" t="n">
-        <v>2442</v>
+        <v>3100</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>126</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="S318" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T318" t="n">
         <v>-1</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" s="1" t="n">
-        <v>2443</v>
+        <v>3101</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>127</v>
@@ -22879,7 +22879,7 @@
         <v>1.5</v>
       </c>
       <c r="S319" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T319" t="n">
         <v>-1</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" s="1" t="n">
-        <v>2444</v>
+        <v>3102</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>128</v>
@@ -22944,7 +22944,7 @@
         <v>1.5</v>
       </c>
       <c r="S320" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T320" t="n">
         <v>-1</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" s="1" t="n">
-        <v>2445</v>
+        <v>3103</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>128</v>
@@ -23011,7 +23011,7 @@
         <v>1.5</v>
       </c>
       <c r="S321" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T321" t="n">
         <v>-1</v>
@@ -23034,7 +23034,7 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" s="1" t="n">
-        <v>2446</v>
+        <v>3104</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>129</v>
@@ -23078,7 +23078,7 @@
         <v>1.5</v>
       </c>
       <c r="S322" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T322" t="n">
         <v>-1</v>
@@ -23101,7 +23101,7 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" s="1" t="n">
-        <v>2447</v>
+        <v>3105</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>129</v>
@@ -23145,7 +23145,7 @@
         <v>1.5</v>
       </c>
       <c r="S323" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T323" t="n">
         <v>-1</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" s="1" t="n">
-        <v>2448</v>
+        <v>3106</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>130</v>
@@ -23212,7 +23212,7 @@
         <v>1.5</v>
       </c>
       <c r="S324" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T324" t="n">
         <v>-1</v>
@@ -23235,7 +23235,7 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" s="1" t="n">
-        <v>2449</v>
+        <v>3107</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>130</v>
@@ -23279,7 +23279,7 @@
         <v>1.5</v>
       </c>
       <c r="S325" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T325" t="n">
         <v>-1</v>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" s="1" t="n">
-        <v>2450</v>
+        <v>3108</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>131</v>
@@ -23344,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="S326" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T326" t="n">
         <v>-1</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" s="1" t="n">
-        <v>2451</v>
+        <v>3109</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>131</v>
@@ -23411,7 +23411,7 @@
         <v>1.5</v>
       </c>
       <c r="S327" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T327" t="n">
         <v>-1</v>
@@ -23434,7 +23434,7 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" s="1" t="n">
-        <v>2452</v>
+        <v>3110</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>132</v>
@@ -23478,7 +23478,7 @@
         <v>1.5</v>
       </c>
       <c r="S328" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T328" t="n">
         <v>-1</v>
@@ -23501,7 +23501,7 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" s="1" t="n">
-        <v>2453</v>
+        <v>3111</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>133</v>
@@ -23545,7 +23545,7 @@
         <v>1.5</v>
       </c>
       <c r="S329" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T329" t="n">
         <v>-1</v>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" s="1" t="n">
-        <v>2454</v>
+        <v>3112</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>133</v>
@@ -23612,7 +23612,7 @@
         <v>1.5</v>
       </c>
       <c r="S330" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T330" t="n">
         <v>-1</v>
